--- a/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
+++ b/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLATZI\Escuela  Excel\Proyectos\Analisis de venta y rendimiento comercial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Excel_Projects\Analisis de venta y rendimiento comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AE6CC3-6D38-441D-88CA-714F16FA4554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278CD864-3D53-46D4-96FE-ABAAAA63B9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
   <si>
     <t>ID_Venta</t>
   </si>
@@ -98,6 +98,21 @@
   </si>
   <si>
     <t>Cliente</t>
+  </si>
+  <si>
+    <t>Nombre_Cliente</t>
+  </si>
+  <si>
+    <t>Ciudad_Cliente</t>
+  </si>
+  <si>
+    <t>Total_Ventas</t>
+  </si>
+  <si>
+    <t>Tipo_Venta</t>
+  </si>
+  <si>
+    <t>Comision</t>
   </si>
 </sst>
 </file>
@@ -671,15 +686,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D223AA19-3F82-4913-9D8A-B900C901E1CA}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -696,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -704,8 +724,17 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1001</v>
       </c>
@@ -731,7 +760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1002</v>
       </c>
@@ -757,7 +786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1003</v>
       </c>
@@ -783,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1004</v>
       </c>
@@ -809,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1005</v>
       </c>

--- a/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
+++ b/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Excel_Projects\Analisis de venta y rendimiento comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278CD864-3D53-46D4-96FE-ABAAAA63B9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DBE0FA-2200-4085-8081-A55692477599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos_Crudos" sheetId="1" r:id="rId1"/>
     <sheet name="Datos_Limpios" sheetId="2" r:id="rId2"/>
+    <sheet name="Productos" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos_Crudos!$A$1:$I$1</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
   <si>
     <t>ID_Venta</t>
   </si>
@@ -113,6 +114,21 @@
   </si>
   <si>
     <t>Comision</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Escritorio</t>
+  </si>
+  <si>
+    <t>Silla</t>
   </si>
 </sst>
 </file>
@@ -688,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D223AA19-3F82-4913-9D8A-B900C901E1CA}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -867,4 +883,77 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA35C4B-DD2E-420C-9957-486FA74CFD36}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
+++ b/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Excel_Projects\Analisis de venta y rendimiento comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DBE0FA-2200-4085-8081-A55692477599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2BFA2D-3179-435D-9071-FFC9C4996235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos_Crudos" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
   <si>
     <t>ID_Venta</t>
   </si>
@@ -193,7 +193,39 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -204,6 +236,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A92B6507-4B6A-4B49-B413-87F7A39C07E3}" name="tbl_Productos" displayName="tbl_Productos" ref="A1:C5" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:C5" xr:uid="{A92B6507-4B6A-4B49-B413-87F7A39C07E3}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C55A325D-7BD6-49AC-B11E-EDF0A27B1C16}" name="Producto" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{A0FFE583-A718-487D-81FE-9C07633F39F7}" name="Categoría" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{9177BD52-4EA4-494A-BEA0-D32F3FBB1A94}" name="Precio_Unitario" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -702,20 +746,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D223AA19-3F82-4913-9D8A-B900C901E1CA}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,16 +786,22 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1001</v>
       </c>
@@ -775,8 +826,19 @@
       <c r="H2" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2">
+        <f>VLOOKUP(I2,tbl_Productos[],3,)</f>
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <f>H2*J2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1002</v>
       </c>
@@ -799,10 +861,21 @@
         <v>14</v>
       </c>
       <c r="H3" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2">
+        <f>VLOOKUP(I3,tbl_Productos[],3,)</f>
+        <v>2500</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K6" si="0">H3*J3</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1003</v>
       </c>
@@ -825,10 +898,21 @@
         <v>11</v>
       </c>
       <c r="H4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2">
+        <f>VLOOKUP(I4,tbl_Productos[],3,)</f>
+        <v>900</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1004</v>
       </c>
@@ -851,10 +935,21 @@
         <v>14</v>
       </c>
       <c r="H5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2">
+        <f>VLOOKUP(I5,tbl_Productos[],3,)</f>
+        <v>900</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1005</v>
       </c>
@@ -877,11 +972,40 @@
         <v>11</v>
       </c>
       <c r="H6" s="2">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2">
+        <f>VLOOKUP(I6,tbl_Productos[],3,)</f>
+        <v>300</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>4800</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6" xr:uid="{56A338E2-FAA5-4BDE-8A62-271F32D614C1}">
+      <formula1>1</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5866A43A-292A-423D-A39B-46379CB8812C}">
+          <x14:formula1>
+            <xm:f>Productos!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -889,13 +1013,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA35C4B-DD2E-420C-9957-486FA74CFD36}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -955,5 +1080,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
+++ b/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Excel_Projects\Analisis de venta y rendimiento comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2BFA2D-3179-435D-9071-FFC9C4996235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F1665E-6A0F-4B1C-82A3-95DA5A31EB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
   <si>
     <t>ID_Venta</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Silla</t>
+  </si>
+  <si>
+    <t>Categoria</t>
   </si>
 </sst>
 </file>
@@ -749,13 +752,13 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" customWidth="1"/>
   </cols>
@@ -771,22 +774,22 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -812,30 +815,31 @@
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2">
+      <c r="G2" s="2">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="str">
+        <f>INDEX(tbl_Productos[Categoría],MATCH(H2,tbl_Productos[Producto],0))</f>
+        <v>Muebles</v>
       </c>
       <c r="J2" s="2">
-        <f>VLOOKUP(I2,tbl_Productos[],3,)</f>
-        <v>50</v>
+        <f>VLOOKUP(H2,tbl_Productos[],3,)</f>
+        <v>900</v>
       </c>
       <c r="K2">
-        <f>H2*J2</f>
-        <v>100</v>
+        <f>G2*J2</f>
+        <v>1800</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -849,29 +853,30 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2">
+      <c r="G3" s="2">
         <v>3</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="I3" t="str">
+        <f>INDEX(tbl_Productos[Categoría],MATCH(H3,tbl_Productos[Producto],0))</f>
+        <v>Tecnología</v>
+      </c>
       <c r="J3" s="2">
-        <f>VLOOKUP(I3,tbl_Productos[],3,)</f>
+        <f>VLOOKUP(H3,tbl_Productos[],3,)</f>
         <v>2500</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K6" si="0">H3*J3</f>
+        <f>G3*J3</f>
         <v>7500</v>
       </c>
     </row>
@@ -886,29 +891,30 @@
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="2">
+      <c r="G4" s="2">
         <v>24</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="I4" t="str">
+        <f>INDEX(tbl_Productos[Categoría],MATCH(H4,tbl_Productos[Producto],0))</f>
+        <v>Muebles</v>
+      </c>
       <c r="J4" s="2">
-        <f>VLOOKUP(I4,tbl_Productos[],3,)</f>
+        <f>VLOOKUP(H4,tbl_Productos[],3,)</f>
         <v>900</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f>G4*J4</f>
         <v>21600</v>
       </c>
     </row>
@@ -923,29 +929,30 @@
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="2">
+      <c r="G5" s="2">
         <v>8</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="I5" t="str">
+        <f>INDEX(tbl_Productos[Categoría],MATCH(H5,tbl_Productos[Producto],0))</f>
+        <v>Muebles</v>
+      </c>
       <c r="J5" s="2">
-        <f>VLOOKUP(I5,tbl_Productos[],3,)</f>
+        <f>VLOOKUP(H5,tbl_Productos[],3,)</f>
         <v>900</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f>G5*J5</f>
         <v>7200</v>
       </c>
     </row>
@@ -960,35 +967,36 @@
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="2">
+      <c r="G6" s="2">
         <v>16</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="I6" t="str">
+        <f>INDEX(tbl_Productos[Categoría],MATCH(H6,tbl_Productos[Producto],0))</f>
+        <v>Muebles</v>
+      </c>
       <c r="J6" s="2">
-        <f>VLOOKUP(I6,tbl_Productos[],3,)</f>
+        <f>VLOOKUP(H6,tbl_Productos[],3,)</f>
         <v>300</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f>G6*J6</f>
         <v>4800</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6" xr:uid="{56A338E2-FAA5-4BDE-8A62-271F32D614C1}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{56A338E2-FAA5-4BDE-8A62-271F32D614C1}">
       <formula1>1</formula1>
       <formula2>1000</formula2>
     </dataValidation>
@@ -1001,7 +1009,7 @@
           <x14:formula1>
             <xm:f>Productos!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I6</xm:sqref>
+          <xm:sqref>H2:H6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
+++ b/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Excel_Projects\Analisis de venta y rendimiento comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F1665E-6A0F-4B1C-82A3-95DA5A31EB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D41BAC-F6C4-4C1F-80BB-B9AE119DFAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Datos_Crudos" sheetId="1" r:id="rId1"/>
     <sheet name="Datos_Limpios" sheetId="2" r:id="rId2"/>
     <sheet name="Productos" sheetId="3" r:id="rId3"/>
+    <sheet name="Reglas_Comision" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos_Crudos!$A$1:$I$1</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
   <si>
     <t>ID_Venta</t>
   </si>
@@ -132,6 +133,9 @@
   </si>
   <si>
     <t>Categoria</t>
+  </si>
+  <si>
+    <t>PCT_comision</t>
   </si>
 </sst>
 </file>
@@ -248,6 +252,17 @@
     <tableColumn id="1" xr3:uid="{C55A325D-7BD6-49AC-B11E-EDF0A27B1C16}" name="Producto" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{A0FFE583-A718-487D-81FE-9C07633F39F7}" name="Categoría" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{9177BD52-4EA4-494A-BEA0-D32F3FBB1A94}" name="Precio_Unitario" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24C3F104-6185-481B-AA84-21DBA956BF27}" name="tbl_Comisiones" displayName="tbl_Comisiones" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{24C3F104-6185-481B-AA84-21DBA956BF27}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{DD42696A-07B4-4869-A763-37E5E23B3AE4}" name="Categoria"/>
+    <tableColumn id="2" xr3:uid="{5C2E5988-912F-4958-8B99-9C786FAB7FE9}" name="PCT_comision"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -752,7 +767,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,6 +856,14 @@
         <f>G2*J2</f>
         <v>1800</v>
       </c>
+      <c r="L2" t="str">
+        <f>IF(K2&gt;3000,"Alta",IF(K2&gt;1000,"Media","Baja"))</f>
+        <v>Media</v>
+      </c>
+      <c r="M2">
+        <f>K2*INDEX(tbl_Comisiones[PCT_comision],MATCH(I2,tbl_Comisiones[Categoria],0))</f>
+        <v>162</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -879,6 +902,14 @@
         <f>G3*J3</f>
         <v>7500</v>
       </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L6" si="0">IF(K3&gt;3000,"Alta",IF(K3&gt;1000,"Media","Baja"))</f>
+        <v>Alta</v>
+      </c>
+      <c r="M3">
+        <f>K3*INDEX(tbl_Comisiones[PCT_comision],MATCH(I3,tbl_Comisiones[Categoria],0))</f>
+        <v>450</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -917,6 +948,14 @@
         <f>G4*J4</f>
         <v>21600</v>
       </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>Alta</v>
+      </c>
+      <c r="M4">
+        <f>K4*INDEX(tbl_Comisiones[PCT_comision],MATCH(I4,tbl_Comisiones[Categoria],0))</f>
+        <v>1944</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -955,6 +994,14 @@
         <f>G5*J5</f>
         <v>7200</v>
       </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>Alta</v>
+      </c>
+      <c r="M5">
+        <f>K5*INDEX(tbl_Comisiones[PCT_comision],MATCH(I5,tbl_Comisiones[Categoria],0))</f>
+        <v>648</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -992,6 +1039,14 @@
       <c r="K6">
         <f>G6*J6</f>
         <v>4800</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>Alta</v>
+      </c>
+      <c r="M6">
+        <f>K6*INDEX(tbl_Comisiones[PCT_comision],MATCH(I6,tbl_Comisiones[Categoria],0))</f>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -1092,4 +1147,50 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F794243-4D18-4DBF-ACF7-2A506EF364F7}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
+++ b/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Excel_Projects\Analisis de venta y rendimiento comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D41BAC-F6C4-4C1F-80BB-B9AE119DFAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BFE8C5-06D5-434E-A418-B95AE3EE43AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos_Crudos" sheetId="1" r:id="rId1"/>
     <sheet name="Datos_Limpios" sheetId="2" r:id="rId2"/>
     <sheet name="Productos" sheetId="3" r:id="rId3"/>
     <sheet name="Reglas_Comision" sheetId="4" r:id="rId4"/>
+    <sheet name="Catalogos" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos_Crudos!$A$1:$I$1</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
   <si>
     <t>ID_Venta</t>
   </si>
@@ -136,6 +137,24 @@
   </si>
   <si>
     <t>PCT_comision</t>
+  </si>
+  <si>
+    <t>Zona</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Norte</t>
+  </si>
+  <si>
+    <t>Sur</t>
+  </si>
+  <si>
+    <t>Meta_Mensual</t>
+  </si>
+  <si>
+    <t>Meta_Vendedor</t>
   </si>
 </sst>
 </file>
@@ -200,7 +219,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -246,12 +293,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A92B6507-4B6A-4B49-B413-87F7A39C07E3}" name="tbl_Productos" displayName="tbl_Productos" ref="A1:C5" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A92B6507-4B6A-4B49-B413-87F7A39C07E3}" name="tbl_Productos" displayName="tbl_Productos" ref="A1:C5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
   <autoFilter ref="A1:C5" xr:uid="{A92B6507-4B6A-4B49-B413-87F7A39C07E3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C55A325D-7BD6-49AC-B11E-EDF0A27B1C16}" name="Producto" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{A0FFE583-A718-487D-81FE-9C07633F39F7}" name="Categoría" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{9177BD52-4EA4-494A-BEA0-D32F3FBB1A94}" name="Precio_Unitario" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C55A325D-7BD6-49AC-B11E-EDF0A27B1C16}" name="Producto" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{A0FFE583-A718-487D-81FE-9C07633F39F7}" name="Categoría" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{9177BD52-4EA4-494A-BEA0-D32F3FBB1A94}" name="Precio_Unitario" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -263,6 +310,17 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DD42696A-07B4-4869-A763-37E5E23B3AE4}" name="Categoria"/>
     <tableColumn id="2" xr3:uid="{5C2E5988-912F-4958-8B99-9C786FAB7FE9}" name="PCT_comision"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15766B5E-EE8D-46D2-AF07-6C940906BD4A}" name="tbl_vendedores" displayName="tbl_vendedores" ref="A1:B4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:B4" xr:uid="{15766B5E-EE8D-46D2-AF07-6C940906BD4A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{18AD78C6-E525-46AB-B3FD-CD06CC0882AC}" name="Vendedor" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{0E06197B-6A6B-416F-ACB8-12C41A75EC61}" name="Zona" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -764,10 +822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D223AA19-3F82-4913-9D8A-B900C901E1CA}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,9 +834,11 @@
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,8 +878,14 @@
       <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1001</v>
       </c>
@@ -864,8 +930,16 @@
         <f>K2*INDEX(tbl_Comisiones[PCT_comision],MATCH(I2,tbl_Comisiones[Categoria],0))</f>
         <v>162</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="str">
+        <f>INDEX(tbl_vendedores[Zona],MATCH(D2,tbl_vendedores[Vendedor],0))</f>
+        <v>Centro</v>
+      </c>
+      <c r="O2">
+        <f>HLOOKUP(D2,Catalogos!$E$1:$H$2,2,FALSE)</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1002</v>
       </c>
@@ -910,8 +984,16 @@
         <f>K3*INDEX(tbl_Comisiones[PCT_comision],MATCH(I3,tbl_Comisiones[Categoria],0))</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="str">
+        <f>INDEX(tbl_vendedores[Zona],MATCH(D3,tbl_vendedores[Vendedor],0))</f>
+        <v>Norte</v>
+      </c>
+      <c r="O3">
+        <f>HLOOKUP(D3,Catalogos!$E$1:$H$2,2,FALSE)</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1003</v>
       </c>
@@ -956,8 +1038,16 @@
         <f>K4*INDEX(tbl_Comisiones[PCT_comision],MATCH(I4,tbl_Comisiones[Categoria],0))</f>
         <v>1944</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="str">
+        <f>INDEX(tbl_vendedores[Zona],MATCH(D4,tbl_vendedores[Vendedor],0))</f>
+        <v>Centro</v>
+      </c>
+      <c r="O4">
+        <f>HLOOKUP(D4,Catalogos!$E$1:$H$2,2,FALSE)</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1004</v>
       </c>
@@ -1002,8 +1092,16 @@
         <f>K5*INDEX(tbl_Comisiones[PCT_comision],MATCH(I5,tbl_Comisiones[Categoria],0))</f>
         <v>648</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="str">
+        <f>INDEX(tbl_vendedores[Zona],MATCH(D5,tbl_vendedores[Vendedor],0))</f>
+        <v>Sur</v>
+      </c>
+      <c r="O5">
+        <f>HLOOKUP(D5,Catalogos!$E$1:$H$2,2,FALSE)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1005</v>
       </c>
@@ -1047,6 +1145,14 @@
       <c r="M6">
         <f>K6*INDEX(tbl_Comisiones[PCT_comision],MATCH(I6,tbl_Comisiones[Categoria],0))</f>
         <v>432</v>
+      </c>
+      <c r="N6" t="str">
+        <f>INDEX(tbl_vendedores[Zona],MATCH(D6,tbl_vendedores[Vendedor],0))</f>
+        <v>Centro</v>
+      </c>
+      <c r="O6">
+        <f>HLOOKUP(D6,Catalogos!$E$1:$H$2,2,FALSE)</f>
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
@@ -1193,4 +1299,80 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEED1B8E-3674-4B50-89DF-9570360BEBAA}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2">
+        <v>15000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>12000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
+++ b/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Excel_Projects\Analisis de venta y rendimiento comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BFE8C5-06D5-434E-A418-B95AE3EE43AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A989FCBD-A807-4ECC-858B-24F8C8523A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos_Crudos" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Productos" sheetId="3" r:id="rId3"/>
     <sheet name="Reglas_Comision" sheetId="4" r:id="rId4"/>
     <sheet name="Catalogos" sheetId="5" r:id="rId5"/>
+    <sheet name="Analisis" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos_Crudos!$A$1:$I$1</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="52">
   <si>
     <t>ID_Venta</t>
   </si>
@@ -155,6 +156,39 @@
   </si>
   <si>
     <t>Meta_Vendedor</t>
+  </si>
+  <si>
+    <t>Mayorista</t>
+  </si>
+  <si>
+    <t>Métrica</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Ventas Totales</t>
+  </si>
+  <si>
+    <t>Total Comisiones</t>
+  </si>
+  <si>
+    <t>Número de Ventas</t>
+  </si>
+  <si>
+    <t>Ticket Promedio</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Comisión</t>
+  </si>
+  <si>
+    <t>Cumple Meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meta</t>
   </si>
 </sst>
 </file>
@@ -219,7 +253,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
     <dxf>
       <font>
         <b/>
@@ -249,6 +283,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -277,6 +328,34 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -293,18 +372,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A92B6507-4B6A-4B49-B413-87F7A39C07E3}" name="tbl_Productos" displayName="tbl_Productos" ref="A1:C5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
-  <autoFilter ref="A1:C5" xr:uid="{A92B6507-4B6A-4B49-B413-87F7A39C07E3}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C55A325D-7BD6-49AC-B11E-EDF0A27B1C16}" name="Producto" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{A0FFE583-A718-487D-81FE-9C07633F39F7}" name="Categoría" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{9177BD52-4EA4-494A-BEA0-D32F3FBB1A94}" name="Precio_Unitario" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D6F5F690-9516-436E-95BD-879E016B9934}" name="tbl_Ventas" displayName="tbl_Ventas" ref="B1:O6" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B1:O6" xr:uid="{D6F5F690-9516-436E-95BD-879E016B9934}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{F686120E-3EBE-4819-A4C9-C5C19E7694D8}" name="Fecha" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{57EC154B-AFCA-4F28-B2A5-1B3D4A522B8B}" name="Nombre_Cliente" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{20842C38-4314-4C04-AF5D-57B781570431}" name="Vendedor" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{1AFF7737-AC16-446D-9C38-30E465477779}" name="Ciudad_Cliente" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{EA20E595-DFA8-44EF-A492-70AF7EF4F681}" name="Canal" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{31392976-848E-4F0B-A479-313941522E30}" name="Cantidad" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{AB4AD0D6-5E87-4A7E-80FC-48B981701FAA}" name="Producto" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{E06E2179-40BA-4901-AD67-FAFB8D91FBED}" name="Categoria">
+      <calculatedColumnFormula>INDEX(tbl_Productos[Categoría],MATCH(H2,tbl_Productos[Producto],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{D3212D4F-59A2-48A6-8057-EBEBA9203DCE}" name="Precio_Unitario" dataDxfId="1">
+      <calculatedColumnFormula>VLOOKUP(H2,tbl_Productos[],3,)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{7CB75159-24DA-4A4C-9DAF-3AE32704ED63}" name="Total_Ventas">
+      <calculatedColumnFormula>G2*J2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{B5544080-13D2-4A98-95DF-379B03718646}" name="Tipo_Venta">
+      <calculatedColumnFormula>IF(K2&gt;3000,"Alta",IF(K2&gt;1000,"Media","Baja"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{399A87D0-4824-4329-952D-CC75DFF83E05}" name="Comision">
+      <calculatedColumnFormula>K2*INDEX(tbl_Comisiones[PCT_comision],MATCH(I2,tbl_Comisiones[Categoria],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{1A1086B1-0BD1-4BD9-A404-93F4C1AC34D0}" name="Zona">
+      <calculatedColumnFormula>INDEX(tbl_vendedores[Zona],MATCH(D2,tbl_vendedores[Vendedor],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{BD611D99-B9E1-40BF-94B3-E643EB1E72FD}" name="Meta_Vendedor">
+      <calculatedColumnFormula>HLOOKUP(D2,Catalogos!$E$1:$H$2,2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A92B6507-4B6A-4B49-B413-87F7A39C07E3}" name="tbl_Productos" displayName="tbl_Productos" ref="A1:C5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="14">
+  <autoFilter ref="A1:C5" xr:uid="{A92B6507-4B6A-4B49-B413-87F7A39C07E3}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C55A325D-7BD6-49AC-B11E-EDF0A27B1C16}" name="Producto" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{A0FFE583-A718-487D-81FE-9C07633F39F7}" name="Categoría" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{9177BD52-4EA4-494A-BEA0-D32F3FBB1A94}" name="Precio_Unitario" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24C3F104-6185-481B-AA84-21DBA956BF27}" name="tbl_Comisiones" displayName="tbl_Comisiones" ref="A1:B3" totalsRowShown="0">
   <autoFilter ref="A1:B3" xr:uid="{24C3F104-6185-481B-AA84-21DBA956BF27}"/>
   <tableColumns count="2">
@@ -315,12 +431,22 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15766B5E-EE8D-46D2-AF07-6C940906BD4A}" name="tbl_vendedores" displayName="tbl_vendedores" ref="A1:B4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15766B5E-EE8D-46D2-AF07-6C940906BD4A}" name="tbl_vendedores" displayName="tbl_vendedores" ref="A1:B4" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
   <autoFilter ref="A1:B4" xr:uid="{15766B5E-EE8D-46D2-AF07-6C940906BD4A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{18AD78C6-E525-46AB-B3FD-CD06CC0882AC}" name="Vendedor" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{0E06197B-6A6B-416F-ACB8-12C41A75EC61}" name="Zona" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{18AD78C6-E525-46AB-B3FD-CD06CC0882AC}" name="Vendedor" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{0E06197B-6A6B-416F-ACB8-12C41A75EC61}" name="Zona" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BE7D8548-1181-4CAB-AACA-507982D8FBAD}" name="tbl_Canales" displayName="tbl_Canales" ref="E5:E8" totalsRowShown="0">
+  <autoFilter ref="E5:E8" xr:uid="{BE7D8548-1181-4CAB-AACA-507982D8FBAD}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{5F6C3D22-E61F-434E-847C-7C0E89D4801A}" name="Canal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -824,18 +950,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D223AA19-3F82-4913-9D8A-B900C901E1CA}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -902,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2">
         <v>2</v>
@@ -1064,7 +1192,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2">
         <v>8</v>
@@ -1163,14 +1291,23 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5866A43A-292A-423D-A39B-46379CB8812C}">
           <x14:formula1>
             <xm:f>Productos!$A$2:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{692AEB86-420E-41B6-B0B2-2AD614ECE2C1}">
+          <x14:formula1>
+            <xm:f>Catalogos!$E$6:$E$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1303,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEED1B8E-3674-4B50-89DF-9570360BEBAA}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1369,10 +1506,188 @@
         <v>38</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44D6B31-8C4D-400A-89C4-83AC6B681457}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2">
+        <f>SUM(tbl_Ventas[Total_Ventas])</f>
+        <v>42900</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2">
+        <f>SUM(tbl_Ventas[Comision])</f>
+        <v>3636</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2">
+        <f>SUMIF(tbl_Ventas[Categoria],E3,tbl_Ventas[Total_Ventas])</f>
+        <v>7500</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <f>SUMIF(tbl_Ventas[Vendedor],I3,tbl_Ventas[Total_Ventas])</f>
+        <v>28200</v>
+      </c>
+      <c r="K3">
+        <f>SUMIF(tbl_Ventas[Vendedor],I3,tbl_Ventas[Comision])</f>
+        <v>2538</v>
+      </c>
+      <c r="L3">
+        <f>HLOOKUP(I3,Catalogos!$E$1:$H$2,2,FALSE)</f>
+        <v>15000</v>
+      </c>
+      <c r="M3" t="str">
+        <f>IF(J3&gt;L3,"Cumple","No Cumple")</f>
+        <v>Cumple</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2">
+        <f>COUNTA(tbl_Ventas[Fecha])</f>
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
+        <f>SUMIF(tbl_Ventas[Categoria],E4,tbl_Ventas[Total_Ventas])</f>
+        <v>35400</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <f>SUMIF(tbl_Ventas[Vendedor],I4,tbl_Ventas[Total_Ventas])</f>
+        <v>7500</v>
+      </c>
+      <c r="K4">
+        <f>SUMIF(tbl_Ventas[Vendedor],I4,tbl_Ventas[Comision])</f>
+        <v>450</v>
+      </c>
+      <c r="L4">
+        <f>HLOOKUP(I4,Catalogos!$E$1:$H$2,2,FALSE)</f>
+        <v>12000</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M5" si="0">IF(J4&gt;L4,"Cumple","No Cumple")</f>
+        <v>No Cumple</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2">
+        <f>AVERAGE(tbl_Ventas[Total_Ventas])</f>
+        <v>8580</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <f>SUMIF(tbl_Ventas[Vendedor],I5,tbl_Ventas[Total_Ventas])</f>
+        <v>7200</v>
+      </c>
+      <c r="K5">
+        <f>SUMIF(tbl_Ventas[Vendedor],I5,tbl_Ventas[Comision])</f>
+        <v>648</v>
+      </c>
+      <c r="L5">
+        <f>HLOOKUP(I5,Catalogos!$E$1:$H$2,2,FALSE)</f>
+        <v>10000</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>No Cumple</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
+++ b/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Excel_Projects\Analisis de venta y rendimiento comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A989FCBD-A807-4ECC-858B-24F8C8523A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE6B908-3E48-4F07-91A4-21A459EAE4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
   <si>
     <t>ID_Venta</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Meta</t>
+  </si>
+  <si>
+    <t>Ventas de Tecnologia en Bogota</t>
   </si>
 </sst>
 </file>
@@ -951,7 +954,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,19 +1147,19 @@
         <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I4" t="str">
         <f>INDEX(tbl_Productos[Categoría],MATCH(H4,tbl_Productos[Producto],0))</f>
-        <v>Muebles</v>
+        <v>Tecnología</v>
       </c>
       <c r="J4" s="2">
         <f>VLOOKUP(H4,tbl_Productos[],3,)</f>
-        <v>900</v>
+        <v>2500</v>
       </c>
       <c r="K4">
         <f>G4*J4</f>
-        <v>21600</v>
+        <v>60000</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
@@ -1164,7 +1167,7 @@
       </c>
       <c r="M4">
         <f>K4*INDEX(tbl_Comisiones[PCT_comision],MATCH(I4,tbl_Comisiones[Categoria],0))</f>
-        <v>1944</v>
+        <v>3600</v>
       </c>
       <c r="N4" t="str">
         <f>INDEX(tbl_vendedores[Zona],MATCH(D4,tbl_vendedores[Vendedor],0))</f>
@@ -1537,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44D6B31-8C4D-400A-89C4-83AC6B681457}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,7 +1568,7 @@
       </c>
       <c r="B2" s="2">
         <f>SUM(tbl_Ventas[Total_Ventas])</f>
-        <v>42900</v>
+        <v>81300</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -1595,25 +1598,25 @@
       </c>
       <c r="B3" s="2">
         <f>SUM(tbl_Ventas[Comision])</f>
-        <v>3636</v>
+        <v>5292</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2">
         <f>SUMIF(tbl_Ventas[Categoria],E3,tbl_Ventas[Total_Ventas])</f>
-        <v>7500</v>
+        <v>67500</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
       </c>
       <c r="J3">
         <f>SUMIF(tbl_Ventas[Vendedor],I3,tbl_Ventas[Total_Ventas])</f>
-        <v>28200</v>
+        <v>66600</v>
       </c>
       <c r="K3">
         <f>SUMIF(tbl_Ventas[Vendedor],I3,tbl_Ventas[Comision])</f>
-        <v>2538</v>
+        <v>4194</v>
       </c>
       <c r="L3">
         <f>HLOOKUP(I3,Catalogos!$E$1:$H$2,2,FALSE)</f>
@@ -1637,7 +1640,7 @@
       </c>
       <c r="F4" s="2">
         <f>SUMIF(tbl_Ventas[Categoria],E4,tbl_Ventas[Total_Ventas])</f>
-        <v>35400</v>
+        <v>13800</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -1665,7 +1668,7 @@
       </c>
       <c r="B5" s="2">
         <f>AVERAGE(tbl_Ventas[Total_Ventas])</f>
-        <v>8580</v>
+        <v>16260</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -1685,6 +1688,17 @@
       <c r="M5" t="str">
         <f t="shared" si="0"/>
         <v>No Cumple</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>SUMIFS(tbl_Ventas[Total_Ventas],tbl_Ventas[Categoria],"Tecnología",tbl_Ventas[Ciudad_Cliente],"Bogotá")</f>
+        <v>60000</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
+++ b/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Excel_Projects\Analisis de venta y rendimiento comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE6B908-3E48-4F07-91A4-21A459EAE4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FB15D3-94AD-4C97-963B-1D035731C653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
   </bookViews>
@@ -256,7 +256,33 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -375,20 +401,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D6F5F690-9516-436E-95BD-879E016B9934}" name="tbl_Ventas" displayName="tbl_Ventas" ref="B1:O6" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D6F5F690-9516-436E-95BD-879E016B9934}" name="tbl_Ventas" displayName="tbl_Ventas" ref="B1:O6" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B1:O6" xr:uid="{D6F5F690-9516-436E-95BD-879E016B9934}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{F686120E-3EBE-4819-A4C9-C5C19E7694D8}" name="Fecha" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{57EC154B-AFCA-4F28-B2A5-1B3D4A522B8B}" name="Nombre_Cliente" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{20842C38-4314-4C04-AF5D-57B781570431}" name="Vendedor" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{1AFF7737-AC16-446D-9C38-30E465477779}" name="Ciudad_Cliente" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{EA20E595-DFA8-44EF-A492-70AF7EF4F681}" name="Canal" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{31392976-848E-4F0B-A479-313941522E30}" name="Cantidad" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{AB4AD0D6-5E87-4A7E-80FC-48B981701FAA}" name="Producto" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F686120E-3EBE-4819-A4C9-C5C19E7694D8}" name="Fecha" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{57EC154B-AFCA-4F28-B2A5-1B3D4A522B8B}" name="Nombre_Cliente" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{20842C38-4314-4C04-AF5D-57B781570431}" name="Vendedor" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{1AFF7737-AC16-446D-9C38-30E465477779}" name="Ciudad_Cliente" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{EA20E595-DFA8-44EF-A492-70AF7EF4F681}" name="Canal" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{31392976-848E-4F0B-A479-313941522E30}" name="Cantidad" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{AB4AD0D6-5E87-4A7E-80FC-48B981701FAA}" name="Producto" dataDxfId="5"/>
     <tableColumn id="8" xr3:uid="{E06E2179-40BA-4901-AD67-FAFB8D91FBED}" name="Categoria">
       <calculatedColumnFormula>INDEX(tbl_Productos[Categoría],MATCH(H2,tbl_Productos[Producto],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D3212D4F-59A2-48A6-8057-EBEBA9203DCE}" name="Precio_Unitario" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{D3212D4F-59A2-48A6-8057-EBEBA9203DCE}" name="Precio_Unitario" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(H2,tbl_Productos[],3,)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{7CB75159-24DA-4A4C-9DAF-3AE32704ED63}" name="Total_Ventas">
@@ -412,12 +438,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A92B6507-4B6A-4B49-B413-87F7A39C07E3}" name="tbl_Productos" displayName="tbl_Productos" ref="A1:C5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A92B6507-4B6A-4B49-B413-87F7A39C07E3}" name="tbl_Productos" displayName="tbl_Productos" ref="A1:C5" totalsRowShown="0" headerRowDxfId="16" dataDxfId="17">
   <autoFilter ref="A1:C5" xr:uid="{A92B6507-4B6A-4B49-B413-87F7A39C07E3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C55A325D-7BD6-49AC-B11E-EDF0A27B1C16}" name="Producto" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{A0FFE583-A718-487D-81FE-9C07633F39F7}" name="Categoría" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{9177BD52-4EA4-494A-BEA0-D32F3FBB1A94}" name="Precio_Unitario" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{C55A325D-7BD6-49AC-B11E-EDF0A27B1C16}" name="Producto" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{A0FFE583-A718-487D-81FE-9C07633F39F7}" name="Categoría" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{9177BD52-4EA4-494A-BEA0-D32F3FBB1A94}" name="Precio_Unitario" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -435,11 +461,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15766B5E-EE8D-46D2-AF07-6C940906BD4A}" name="tbl_vendedores" displayName="tbl_vendedores" ref="A1:B4" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15766B5E-EE8D-46D2-AF07-6C940906BD4A}" name="tbl_vendedores" displayName="tbl_vendedores" ref="A1:B4" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13">
   <autoFilter ref="A1:B4" xr:uid="{15766B5E-EE8D-46D2-AF07-6C940906BD4A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{18AD78C6-E525-46AB-B3FD-CD06CC0882AC}" name="Vendedor" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{0E06197B-6A6B-416F-ACB8-12C41A75EC61}" name="Zona" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{18AD78C6-E525-46AB-B3FD-CD06CC0882AC}" name="Vendedor" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{0E06197B-6A6B-416F-ACB8-12C41A75EC61}" name="Zona" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1543,7 +1569,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,6 +1728,14 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M3:M5">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Cumple">
+      <formula>NOT(ISERROR(SEARCH("Cumple",M3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No Cumple">
+      <formula>NOT(ISERROR(SEARCH("No Cumple",M3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
+++ b/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Excel_Projects\Analisis de venta y rendimiento comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FB15D3-94AD-4C97-963B-1D035731C653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED7268B-9729-431C-AFD8-576AE6585955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos_Crudos" sheetId="1" r:id="rId1"/>
@@ -979,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D223AA19-3F82-4913-9D8A-B900C901E1CA}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +995,7 @@
     <col min="15" max="15" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1568,7 +1568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44D6B31-8C4D-400A-89C4-83AC6B681457}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>

--- a/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
+++ b/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Excel_Projects\Analisis de venta y rendimiento comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED7268B-9729-431C-AFD8-576AE6585955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB281B0-2132-4F91-9796-AB15AA12BD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos_Crudos" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,29 @@
     <sheet name="Reglas_Comision" sheetId="4" r:id="rId4"/>
     <sheet name="Catalogos" sheetId="5" r:id="rId5"/>
     <sheet name="Analisis" sheetId="6" r:id="rId6"/>
+    <sheet name="Tablas_Dinamicas" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos_Crudos!$A$1:$I$1</definedName>
+    <definedName name="SegmentaciónDeDatos_Canal">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Categoria">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Ciudad_Cliente">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="7" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId10"/>
+        <x14:slicerCache r:id="rId11"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -33,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="60">
   <si>
     <t>ID_Venta</t>
   </si>
@@ -192,6 +209,27 @@
   </si>
   <si>
     <t>Ventas de Tecnologia en Bogota</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Etiquetas de columna</t>
+  </si>
+  <si>
+    <t>Suma de Total_Ventas</t>
+  </si>
+  <si>
+    <t>Total Suma de Total_Ventas</t>
+  </si>
+  <si>
+    <t>Total Suma de Margen</t>
+  </si>
+  <si>
+    <t>Suma de Margen</t>
   </si>
 </sst>
 </file>
@@ -235,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -252,11 +290,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -276,12 +319,44 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -347,46 +422,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -400,21 +435,2142 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[analisis_ventas.xlsx]Tablas_Dinamicas!TablaDinámica1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mayorista - Suma de Total_Ventas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$A$6:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Muebles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tablas_Dinamicas!$B$6:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F61-4A71-BE75-232FC779DBC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$C$3:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mayorista - Suma de Margen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$A$6:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Muebles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tablas_Dinamicas!$C$6:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1440</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F61-4A71-BE75-232FC779DBC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$D$3:$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tienda - Suma de Total_Ventas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$A$6:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Muebles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tablas_Dinamicas!$D$6:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-5F61-4A71-BE75-232FC779DBC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$E$3:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tienda - Suma de Margen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$A$6:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Muebles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tablas_Dinamicas!$E$6:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-5F61-4A71-BE75-232FC779DBC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="730791407"/>
+        <c:axId val="730802927"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="730791407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730802927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="730802927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730791407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEA44C0-2F00-B45C-1434-B80DECFAF4FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Ciudad_Cliente">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DC0437-48FF-11F7-174D-C3E2C2E8457D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Ciudad_Cliente"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4733925" y="2828926"/>
+              <a:ext cx="1828800" cy="1123950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Canal">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7D243C-57B1-88EB-334E-4505EA64B899}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Canal"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4724400" y="1695451"/>
+              <a:ext cx="1828800" cy="1123950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Categoria">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE511AB-ACBB-F66C-22BB-F826EB8EAE5A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Categoria"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4714875" y="3962401"/>
+              <a:ext cx="1828800" cy="1095374"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jeinfferson B" refreshedDate="46062.543981712966" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="5" xr:uid="{BD0C2A9B-79B2-47CB-A8E6-DE14BF5EA00E}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="tbl_Ventas"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="Fecha" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-05T00:00:00" maxDate="2024-01-09T00:00:00"/>
+    </cacheField>
+    <cacheField name="Nombre_Cliente" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Vendedor" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Ciudad_Cliente" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Bogotá"/>
+        <s v="Medellín"/>
+        <s v="Cali"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Canal" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Tienda"/>
+        <s v="Online"/>
+        <s v="Mayorista"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Cantidad" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="24"/>
+    </cacheField>
+    <cacheField name="Producto" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Categoria" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Muebles"/>
+        <s v="Tecnología"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Precio_Unitario" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="300" maxValue="2500"/>
+    </cacheField>
+    <cacheField name="Total_Ventas" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1800" maxValue="60000"/>
+    </cacheField>
+    <cacheField name="Tipo_Venta" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Comision" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="162" maxValue="3600"/>
+    </cacheField>
+    <cacheField name="Zona" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Meta_Vendedor" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000" maxValue="15000"/>
+    </cacheField>
+    <cacheField name="Margen" numFmtId="0" formula="Total_Ventas *0.2" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1950897236"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
+  <r>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="Ana Gómez "/>
+    <s v="Carlos"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <s v="Escritorio"/>
+    <x v="0"/>
+    <n v="900"/>
+    <n v="1800"/>
+    <s v="Media"/>
+    <n v="162"/>
+    <s v="Centro"/>
+    <n v="15000"/>
+  </r>
+  <r>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Luis Pérez "/>
+    <s v="Diana"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="Laptop"/>
+    <x v="1"/>
+    <n v="2500"/>
+    <n v="7500"/>
+    <s v="Alta"/>
+    <n v="450"/>
+    <s v="Norte"/>
+    <n v="12000"/>
+  </r>
+  <r>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Ana Gómez "/>
+    <s v="Carlos"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="24"/>
+    <s v="Laptop"/>
+    <x v="1"/>
+    <n v="2500"/>
+    <n v="60000"/>
+    <s v="Alta"/>
+    <n v="3600"/>
+    <s v="Centro"/>
+    <n v="15000"/>
+  </r>
+  <r>
+    <d v="2024-01-07T00:00:00"/>
+    <s v="Juan Ruiz "/>
+    <s v="Andrés"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="8"/>
+    <s v="Escritorio"/>
+    <x v="0"/>
+    <n v="900"/>
+    <n v="7200"/>
+    <s v="Alta"/>
+    <n v="648"/>
+    <s v="Sur"/>
+    <n v="10000"/>
+  </r>
+  <r>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="Laura Díaz "/>
+    <s v="Carlos"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="16"/>
+    <s v="Silla"/>
+    <x v="0"/>
+    <n v="300"/>
+    <n v="4800"/>
+    <s v="Alta"/>
+    <n v="432"/>
+    <s v="Centro"/>
+    <n v="15000"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1D9401C-0867-4023-8396-216647198446}" name="TablaDinámica1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:G7" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item h="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="4"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Suma de Total_Ventas" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Margen" fld="14" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" grandCol="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" grandCol="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Ciudad_Cliente" xr10:uid="{A0577B1D-4BA0-4B00-97A5-E1E5F1405705}" sourceName="Ciudad_Cliente">
+  <pivotTables>
+    <pivotTable tabId="8" name="TablaDinámica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1950897236">
+      <items count="3">
+        <i x="0" s="1"/>
+        <i x="2" s="1"/>
+        <i x="1" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Canal" xr10:uid="{620ACF3E-581E-439C-9624-E503D850EF54}" sourceName="Canal">
+  <pivotTables>
+    <pivotTable tabId="8" name="TablaDinámica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1950897236">
+      <items count="3">
+        <i x="2" s="1"/>
+        <i x="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Categoria" xr10:uid="{9D128584-2947-4CE9-8DBB-85829E51BAB7}" sourceName="Categoria">
+  <pivotTables>
+    <pivotTable tabId="8" name="TablaDinámica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1950897236">
+      <items count="2">
+        <i x="0" s="1"/>
+        <i x="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Ciudad_Cliente" xr10:uid="{B64D52E5-2CBD-4D43-9F16-6F51226004CF}" cache="SegmentaciónDeDatos_Ciudad_Cliente" caption="Ciudad_Cliente" rowHeight="241300"/>
+  <slicer name="Canal" xr10:uid="{5288BE5D-8717-4BCE-AC6E-EC3421CD1811}" cache="SegmentaciónDeDatos_Canal" caption="Canal" rowHeight="241300"/>
+  <slicer name="Categoria" xr10:uid="{95438D9A-F1EB-41AD-B2A7-97F491E122BC}" cache="SegmentaciónDeDatos_Categoria" caption="Categoria" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D6F5F690-9516-436E-95BD-879E016B9934}" name="tbl_Ventas" displayName="tbl_Ventas" ref="B1:O6" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D6F5F690-9516-436E-95BD-879E016B9934}" name="tbl_Ventas" displayName="tbl_Ventas" ref="B1:O6" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="B1:O6" xr:uid="{D6F5F690-9516-436E-95BD-879E016B9934}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{F686120E-3EBE-4819-A4C9-C5C19E7694D8}" name="Fecha" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{57EC154B-AFCA-4F28-B2A5-1B3D4A522B8B}" name="Nombre_Cliente" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{20842C38-4314-4C04-AF5D-57B781570431}" name="Vendedor" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{1AFF7737-AC16-446D-9C38-30E465477779}" name="Ciudad_Cliente" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{EA20E595-DFA8-44EF-A492-70AF7EF4F681}" name="Canal" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{31392976-848E-4F0B-A479-313941522E30}" name="Cantidad" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{AB4AD0D6-5E87-4A7E-80FC-48B981701FAA}" name="Producto" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{F686120E-3EBE-4819-A4C9-C5C19E7694D8}" name="Fecha" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{57EC154B-AFCA-4F28-B2A5-1B3D4A522B8B}" name="Nombre_Cliente" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{20842C38-4314-4C04-AF5D-57B781570431}" name="Vendedor" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{1AFF7737-AC16-446D-9C38-30E465477779}" name="Ciudad_Cliente" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{EA20E595-DFA8-44EF-A492-70AF7EF4F681}" name="Canal" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{31392976-848E-4F0B-A479-313941522E30}" name="Cantidad" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{AB4AD0D6-5E87-4A7E-80FC-48B981701FAA}" name="Producto" dataDxfId="12"/>
     <tableColumn id="8" xr3:uid="{E06E2179-40BA-4901-AD67-FAFB8D91FBED}" name="Categoria">
       <calculatedColumnFormula>INDEX(tbl_Productos[Categoría],MATCH(H2,tbl_Productos[Producto],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D3212D4F-59A2-48A6-8057-EBEBA9203DCE}" name="Precio_Unitario" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{D3212D4F-59A2-48A6-8057-EBEBA9203DCE}" name="Precio_Unitario" dataDxfId="11">
       <calculatedColumnFormula>VLOOKUP(H2,tbl_Productos[],3,)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{7CB75159-24DA-4A4C-9DAF-3AE32704ED63}" name="Total_Ventas">
@@ -438,12 +2594,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A92B6507-4B6A-4B49-B413-87F7A39C07E3}" name="tbl_Productos" displayName="tbl_Productos" ref="A1:C5" totalsRowShown="0" headerRowDxfId="16" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A92B6507-4B6A-4B49-B413-87F7A39C07E3}" name="tbl_Productos" displayName="tbl_Productos" ref="A1:C5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:C5" xr:uid="{A92B6507-4B6A-4B49-B413-87F7A39C07E3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C55A325D-7BD6-49AC-B11E-EDF0A27B1C16}" name="Producto" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{A0FFE583-A718-487D-81FE-9C07633F39F7}" name="Categoría" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{9177BD52-4EA4-494A-BEA0-D32F3FBB1A94}" name="Precio_Unitario" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{C55A325D-7BD6-49AC-B11E-EDF0A27B1C16}" name="Producto" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{A0FFE583-A718-487D-81FE-9C07633F39F7}" name="Categoría" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{9177BD52-4EA4-494A-BEA0-D32F3FBB1A94}" name="Precio_Unitario" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -461,11 +2617,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15766B5E-EE8D-46D2-AF07-6C940906BD4A}" name="tbl_vendedores" displayName="tbl_vendedores" ref="A1:B4" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15766B5E-EE8D-46D2-AF07-6C940906BD4A}" name="tbl_vendedores" displayName="tbl_vendedores" ref="A1:B4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:B4" xr:uid="{15766B5E-EE8D-46D2-AF07-6C940906BD4A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{18AD78C6-E525-46AB-B3FD-CD06CC0882AC}" name="Vendedor" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{0E06197B-6A6B-416F-ACB8-12C41A75EC61}" name="Zona" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{18AD78C6-E525-46AB-B3FD-CD06CC0882AC}" name="Vendedor" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{0E06197B-6A6B-416F-ACB8-12C41A75EC61}" name="Zona" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -979,8 +3135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D223AA19-3F82-4913-9D8A-B900C901E1CA}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,7 +3514,7 @@
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1729,13 +3885,129 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M3:M5">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Cumple">
-      <formula>NOT(ISERROR(SEARCH("Cumple",M3)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No Cumple">
       <formula>NOT(ISERROR(SEARCH("No Cumple",M3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Cumple">
+      <formula>NOT(ISERROR(SEARCH("Cumple",M3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22DF20C-5319-4F61-AD50-79BACA523E43}">
+  <dimension ref="A3:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8">
+        <v>7200</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1440</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1800</v>
+      </c>
+      <c r="E6" s="8">
+        <v>360</v>
+      </c>
+      <c r="F6" s="8">
+        <v>9000</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="8">
+        <v>7200</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1440</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1800</v>
+      </c>
+      <c r="E7" s="8">
+        <v>360</v>
+      </c>
+      <c r="F7" s="8">
+        <v>9000</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
+++ b/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Excel_Projects\Analisis de venta y rendimiento comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB281B0-2132-4F91-9796-AB15AA12BD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09895147-1F98-4490-AF5C-4FEFA42E82BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos_Crudos" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId8"/>
+    <pivotCache cacheId="13" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="61">
   <si>
     <t>ID_Venta</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Suma de Margen</t>
+  </si>
+  <si>
+    <t>Daniel Saenz</t>
   </si>
 </sst>
 </file>
@@ -2160,13 +2163,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jeinfferson B" refreshedDate="46062.543981712966" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="5" xr:uid="{BD0C2A9B-79B2-47CB-A8E6-DE14BF5EA00E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jeinfferson B" refreshedDate="46062.581010532405" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="6" xr:uid="{BD0C2A9B-79B2-47CB-A8E6-DE14BF5EA00E}">
   <cacheSource type="worksheet">
     <worksheetSource name="tbl_Ventas"/>
   </cacheSource>
   <cacheFields count="15">
     <cacheField name="Fecha" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-05T00:00:00" maxDate="2024-01-09T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-05T00:00:00" maxDate="2024-01-10T00:00:00"/>
     </cacheField>
     <cacheField name="Nombre_Cliente" numFmtId="49">
       <sharedItems/>
@@ -2229,7 +2232,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
   <r>
     <d v="2024-01-05T00:00:00"/>
     <s v="Ana Gómez "/>
@@ -2310,11 +2313,27 @@
     <s v="Centro"/>
     <n v="15000"/>
   </r>
+  <r>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Daniel Saenz"/>
+    <s v="Diana"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="Laptop"/>
+    <x v="1"/>
+    <n v="2500"/>
+    <n v="7500"/>
+    <s v="Alta"/>
+    <n v="450"/>
+    <s v="Norte"/>
+    <n v="12000"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1D9401C-0867-4023-8396-216647198446}" name="TablaDinámica1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1D9401C-0867-4023-8396-216647198446}" name="TablaDinámica1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:G7" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField numFmtId="14" showAll="0"/>
@@ -2557,8 +2576,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D6F5F690-9516-436E-95BD-879E016B9934}" name="tbl_Ventas" displayName="tbl_Ventas" ref="B1:O6" totalsRowShown="0" headerRowDxfId="19">
-  <autoFilter ref="B1:O6" xr:uid="{D6F5F690-9516-436E-95BD-879E016B9934}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D6F5F690-9516-436E-95BD-879E016B9934}" name="tbl_Ventas" displayName="tbl_Ventas" ref="B1:O7" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="B1:O7" xr:uid="{D6F5F690-9516-436E-95BD-879E016B9934}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{F686120E-3EBE-4819-A4C9-C5C19E7694D8}" name="Fecha" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{57EC154B-AFCA-4F28-B2A5-1B3D4A522B8B}" name="Nombre_Cliente" dataDxfId="17"/>
@@ -3133,10 +3152,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D223AA19-3F82-4913-9D8A-B900C901E1CA}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3468,9 +3487,63 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45300</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="str">
+        <f>INDEX(tbl_Productos[Categoría],MATCH(H7,tbl_Productos[Producto],0))</f>
+        <v>Tecnología</v>
+      </c>
+      <c r="J7" s="2">
+        <f>VLOOKUP(H7,tbl_Productos[],3,)</f>
+        <v>2500</v>
+      </c>
+      <c r="K7">
+        <f>G7*J7</f>
+        <v>7500</v>
+      </c>
+      <c r="L7" t="str">
+        <f>IF(K7&gt;3000,"Alta",IF(K7&gt;1000,"Media","Baja"))</f>
+        <v>Alta</v>
+      </c>
+      <c r="M7">
+        <f>K7*INDEX(tbl_Comisiones[PCT_comision],MATCH(I7,tbl_Comisiones[Categoria],0))</f>
+        <v>450</v>
+      </c>
+      <c r="N7" t="str">
+        <f>INDEX(tbl_vendedores[Zona],MATCH(D7,tbl_vendedores[Vendedor],0))</f>
+        <v>Norte</v>
+      </c>
+      <c r="O7">
+        <f>HLOOKUP(D7,Catalogos!$E$1:$H$2,2,FALSE)</f>
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{56A338E2-FAA5-4BDE-8A62-271F32D614C1}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7" xr:uid="{56A338E2-FAA5-4BDE-8A62-271F32D614C1}">
       <formula1>1</formula1>
       <formula2>1000</formula2>
     </dataValidation>
@@ -3486,13 +3559,13 @@
           <x14:formula1>
             <xm:f>Productos!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H6</xm:sqref>
+          <xm:sqref>H2:H7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{692AEB86-420E-41B6-B0B2-2AD614ECE2C1}">
           <x14:formula1>
             <xm:f>Catalogos!$E$6:$E$8</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F6</xm:sqref>
+          <xm:sqref>F2:F7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3750,7 +3823,7 @@
       </c>
       <c r="B2" s="2">
         <f>SUM(tbl_Ventas[Total_Ventas])</f>
-        <v>81300</v>
+        <v>88800</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -3780,14 +3853,14 @@
       </c>
       <c r="B3" s="2">
         <f>SUM(tbl_Ventas[Comision])</f>
-        <v>5292</v>
+        <v>5742</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2">
         <f>SUMIF(tbl_Ventas[Categoria],E3,tbl_Ventas[Total_Ventas])</f>
-        <v>67500</v>
+        <v>75000</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -3815,7 +3888,7 @@
       </c>
       <c r="B4" s="2">
         <f>COUNTA(tbl_Ventas[Fecha])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
@@ -3829,11 +3902,11 @@
       </c>
       <c r="J4">
         <f>SUMIF(tbl_Ventas[Vendedor],I4,tbl_Ventas[Total_Ventas])</f>
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="K4">
         <f>SUMIF(tbl_Ventas[Vendedor],I4,tbl_Ventas[Comision])</f>
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="L4">
         <f>HLOOKUP(I4,Catalogos!$E$1:$H$2,2,FALSE)</f>
@@ -3841,7 +3914,7 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" ref="M4:M5" si="0">IF(J4&gt;L4,"Cumple","No Cumple")</f>
-        <v>No Cumple</v>
+        <v>Cumple</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3850,7 +3923,7 @@
       </c>
       <c r="B5" s="2">
         <f>AVERAGE(tbl_Ventas[Total_Ventas])</f>
-        <v>16260</v>
+        <v>14800</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -3900,8 +3973,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22DF20C-5319-4F61-AD50-79BACA523E43}">
   <dimension ref="A3:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G7"/>
+      <pivotSelection pane="bottomRight" showHeader="1" activeRow="2" click="1" r:id="rId1">
+        <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
+++ b/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Excel_Projects\Analisis de venta y rendimiento comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09895147-1F98-4490-AF5C-4FEFA42E82BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B31F22-A6F2-40A6-8283-71E6A4030142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos_Crudos" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Catalogos" sheetId="5" r:id="rId5"/>
     <sheet name="Analisis" sheetId="6" r:id="rId6"/>
     <sheet name="Tablas_Dinamicas" sheetId="8" r:id="rId7"/>
+    <sheet name="Dashboard" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos_Crudos!$A$1:$I$1</definedName>
@@ -29,14 +30,14 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId8"/>
+    <pivotCache cacheId="13" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId9"/>
         <x14:slicerCache r:id="rId10"/>
         <x14:slicerCache r:id="rId11"/>
+        <x14:slicerCache r:id="rId12"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="63">
   <si>
     <t>ID_Venta</t>
   </si>
@@ -233,13 +234,19 @@
   </si>
   <si>
     <t>Daniel Saenz</t>
+  </si>
+  <si>
+    <t>KPI</t>
+  </si>
+  <si>
+    <t>% Cumplimiento Meta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,13 +262,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -276,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -298,6 +326,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3973,7 +4007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22DF20C-5319-4F61-AD50-79BACA523E43}">
   <dimension ref="A3:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:G7"/>
       <pivotSelection pane="bottomRight" showHeader="1" activeRow="2" click="1" r:id="rId1">
         <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
@@ -4086,4 +4120,67 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1AB857-B6E6-4422-94BD-7394F300F344}">
+  <dimension ref="B2:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="10">
+        <f>Analisis!B2</f>
+        <v>88800</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="10">
+        <f>SUM(tbl_Ventas[Comision])</f>
+        <v>5742</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="10">
+        <f>AVERAGE(tbl_Ventas[Total_Ventas])</f>
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="10">
+        <f>C3/SUM(tbl_Ventas[Meta_Vendedor])</f>
+        <v>1.1240506329113924</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
+++ b/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Excel_Projects\Analisis de venta y rendimiento comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B31F22-A6F2-40A6-8283-71E6A4030142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D4C8D9-E528-4E02-BA3A-D6E45FFE5DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos_Crudos" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId9"/>
+    <pivotCache cacheId="14" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="63">
   <si>
     <t>ID_Venta</t>
   </si>
@@ -271,7 +271,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -304,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -331,6 +331,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1378,6 +1381,911 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[analisis_ventas.xlsx]Tablas_Dinamicas!TablaDinámica2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$A$29:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Muebles</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tecnología</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tablas_Dinamicas!$B$29:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B6BA-43DA-BB44-D2B26D2BFACF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="740361167"/>
+        <c:axId val="740365967"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="740361167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740365967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="740365967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740361167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[analisis_ventas.xlsx]Tablas_Dinamicas!TablaDinámica2</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ventas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Totales por Categoria</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$A$29:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Muebles</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tecnología</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tablas_Dinamicas!$B$29:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A64-476E-A926-B8EE702D4C18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="740361167"/>
+        <c:axId val="740365967"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="740361167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740365967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="740365967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740361167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1418,7 +2326,1093 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1961,16 +3955,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2006,7 +4000,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4733925" y="2828926"/>
+              <a:off x="6448425" y="1695451"/>
               <a:ext cx="1828800" cy="1123950"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2084,7 +4078,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4724400" y="1695451"/>
+              <a:off x="4610100" y="1695451"/>
               <a:ext cx="1828800" cy="1123950"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2118,15 +4112,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2162,7 +4156,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4714875" y="3962401"/>
+              <a:off x="4610100" y="2828926"/>
               <a:ext cx="1828800" cy="1095374"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2191,6 +4185,85 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F76D35D-4158-AB94-859E-5555DD173934}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF43C0B-7C42-448B-A64A-82593230EA93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2367,7 +4440,85 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1D9401C-0867-4023-8396-216647198446}" name="TablaDinámica1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A22A86CF-E7E4-4661-90C6-08D2054DA74B}" name="TablaDinámica2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A28:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Total_Ventas" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1D9401C-0867-4023-8396-216647198446}" name="TablaDinámica1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:G7" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField numFmtId="14" showAll="0"/>
@@ -3189,7 +5340,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4005,19 +6156,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22DF20C-5319-4F61-AD50-79BACA523E43}">
-  <dimension ref="A3:G7"/>
+  <dimension ref="A3:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G7"/>
-      <pivotSelection pane="bottomRight" showHeader="1" activeRow="2" click="1" r:id="rId1">
-        <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-      </pivotSelection>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -4109,13 +6257,45 @@
         <v>1800</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="8">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="8">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="8">
+        <v>88800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
+        <x14:slicer r:id="rId4"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -4127,7 +6307,7 @@
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4148,7 +6328,7 @@
       <c r="B3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <f>Analisis!B2</f>
         <v>88800</v>
       </c>
@@ -4157,7 +6337,7 @@
       <c r="B4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <f>SUM(tbl_Ventas[Comision])</f>
         <v>5742</v>
       </c>
@@ -4166,7 +6346,7 @@
       <c r="B5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <f>AVERAGE(tbl_Ventas[Total_Ventas])</f>
         <v>14800</v>
       </c>
@@ -4175,12 +6355,13 @@
       <c r="B6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <f>C3/SUM(tbl_Ventas[Meta_Vendedor])</f>
         <v>1.1240506329113924</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
+++ b/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Excel_Projects\Analisis de venta y rendimiento comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D4C8D9-E528-4E02-BA3A-D6E45FFE5DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4200D8AA-98A7-43AB-BEDF-85780778D49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
   </bookViews>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId9"/>
+    <pivotCache cacheId="17" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="63">
   <si>
     <t>ID_Venta</t>
   </si>
@@ -304,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -335,6 +335,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,6 +465,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7F7FB5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1786,6 +1792,1179 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
+    <c:name>[analisis_ventas.xlsx]Tablas_Dinamicas!TablaDinámica3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Ventas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> Totales por Vendedor</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Total_Ventas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$A$49:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Carlos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Andrés</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tablas_Dinamicas!$B$49:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>66600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-62E5-4F35-BD13-CB77EEBD32F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$C$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Margen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$A$49:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Carlos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Andrés</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tablas_Dinamicas!$C$49:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1440</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-62E5-4F35-BD13-CB77EEBD32F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="730827407"/>
+        <c:axId val="730830767"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="730827407"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730830767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="730830767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730827407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[analisis_ventas.xlsx]Tablas_Dinamicas!TablaDinámica4</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distribución</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> por Canal</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7F7FB5"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-5.5555555555555558E-3"/>
+              <c:y val="-1.3888888888888888E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-21FF-430B-BA8D-796EB6EA15C8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7F7FB5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-21FF-430B-BA8D-796EB6EA15C8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-21FF-430B-BA8D-796EB6EA15C8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5555555555555558E-3"/>
+                  <c:y val="-1.3888888888888888E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-21FF-430B-BA8D-796EB6EA15C8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$A$71:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Online</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tienda</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mayorista</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tablas_Dinamicas!$B$71:$B$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.72972972972972971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1891891891891892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1081081081081086E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-21FF-430B-BA8D-796EB6EA15C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
     <c:name>[analisis_ventas.xlsx]Tablas_Dinamicas!TablaDinámica2</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
@@ -2286,6 +3465,1733 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[analisis_ventas.xlsx]Tablas_Dinamicas!TablaDinámica3</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Ventas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> Totales por Vendedor</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13031773672521701"/>
+          <c:y val="0.25294135364227011"/>
+          <c:w val="0.46554159095497677"/>
+          <c:h val="0.67055591411729276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Total_Ventas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$A$49:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Carlos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Andrés</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tablas_Dinamicas!$B$49:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>66600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1954-49B7-89EE-9FB66BE3AE0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$C$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Margen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$A$49:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Carlos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Andrés</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tablas_Dinamicas!$C$49:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1440</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1954-49B7-89EE-9FB66BE3AE0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="730827407"/>
+        <c:axId val="730830767"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="730827407"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730830767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="730830767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730827407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[analisis_ventas.xlsx]Tablas_Dinamicas!TablaDinámica4</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distribución</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> por Canal</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7F7FB5"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-5.5555555555555558E-3"/>
+              <c:y val="-1.3888888888888888E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7F7FB5"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-5.5555555555555558E-3"/>
+              <c:y val="-1.3888888888888888E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7F7FB5"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-5.5555555555555558E-3"/>
+              <c:y val="-1.3888888888888888E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E7CD-48C2-883C-835E3098BCED}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7F7FB5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E7CD-48C2-883C-835E3098BCED}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E7CD-48C2-883C-835E3098BCED}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5555555555555558E-3"/>
+                  <c:y val="-1.3888888888888888E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-E7CD-48C2-883C-835E3098BCED}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$A$71:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Online</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tienda</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mayorista</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tablas_Dinamicas!$B$71:$B$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.72972972972972971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1891891891891892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1081081081081086E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E7CD-48C2-883C-835E3098BCED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2406,6 +5312,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3413,7 +6479,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3617,6 +6683,1030 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -3883,6 +7973,1030 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4189,16 +9303,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4223,6 +9337,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92EC57B1-7D6A-4E1C-6505-0A79C0A78D23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF9FC7F-EE0A-9431-2A65-82D83E44D0F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4239,7 +9425,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4266,6 +9452,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5702FAE-3D88-41FE-B0C6-46AC1BD19F0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E01DEB-7B30-4F89-8DCD-6ADF1EA80AFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4282,7 +9544,11 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Vendedor" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="3">
+        <s v="Carlos"/>
+        <s v="Diana"/>
+        <s v="Andrés"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Ciudad_Cliente" numFmtId="0">
       <sharedItems count="3">
@@ -4343,7 +9609,7 @@
   <r>
     <d v="2024-01-05T00:00:00"/>
     <s v="Ana Gómez "/>
-    <s v="Carlos"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <n v="2"/>
@@ -4359,7 +9625,7 @@
   <r>
     <d v="2024-01-06T00:00:00"/>
     <s v="Luis Pérez "/>
-    <s v="Diana"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <n v="3"/>
@@ -4375,7 +9641,7 @@
   <r>
     <d v="2024-01-06T00:00:00"/>
     <s v="Ana Gómez "/>
-    <s v="Carlos"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="24"/>
@@ -4391,7 +9657,7 @@
   <r>
     <d v="2024-01-07T00:00:00"/>
     <s v="Juan Ruiz "/>
-    <s v="Andrés"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="2"/>
     <n v="8"/>
@@ -4407,7 +9673,7 @@
   <r>
     <d v="2024-01-08T00:00:00"/>
     <s v="Laura Díaz "/>
-    <s v="Carlos"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="16"/>
@@ -4423,7 +9689,7 @@
   <r>
     <d v="2024-01-09T00:00:00"/>
     <s v="Daniel Saenz"/>
-    <s v="Diana"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <n v="3"/>
@@ -4440,7 +9706,378 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A22A86CF-E7E4-4661-90C6-08D2054DA74B}" name="TablaDinámica2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DB9D872-E7D2-478B-B3B4-BF0E872D0C93}" name="TablaDinámica4" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A70:B74" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Total_Ventas" fld="9" showDataAs="percentOfTotal" baseField="4" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="16">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2B64918-61D5-4DCB-943D-2111D1AA811E}" name="TablaDinámica3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A48:C52" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Suma de Total_Ventas" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Margen" fld="14" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A22A86CF-E7E4-4661-90C6-08D2054DA74B}" name="TablaDinámica2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A28:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField numFmtId="14" showAll="0"/>
@@ -4517,8 +10154,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1D9401C-0867-4023-8396-216647198446}" name="TablaDinámica1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1D9401C-0867-4023-8396-216647198446}" name="TablaDinámica1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:G7" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField numFmtId="14" showAll="0"/>
@@ -5339,8 +10976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D223AA19-3F82-4913-9D8A-B900C901E1CA}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6156,10 +11793,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22DF20C-5319-4F61-AD50-79BACA523E43}">
-  <dimension ref="A3:G31"/>
+  <dimension ref="A3:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B31"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6289,13 +11926,108 @@
         <v>88800</v>
       </c>
     </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="8">
+        <v>66600</v>
+      </c>
+      <c r="C49" s="8">
+        <v>13320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="8">
+        <v>15000</v>
+      </c>
+      <c r="C50" s="8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="8">
+        <v>7200</v>
+      </c>
+      <c r="C51" s="8">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="8">
+        <v>88800</v>
+      </c>
+      <c r="C52" s="8">
+        <v>17760</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="12">
+        <v>0.72972972972972971</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="12">
+        <v>0.1891891891891892</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" s="12">
+        <v>8.1081081081081086E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="12">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId4"/>
+        <x14:slicer r:id="rId6"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -6307,7 +12039,7 @@
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
+++ b/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Excel_Projects\Analisis de venta y rendimiento comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4200D8AA-98A7-43AB-BEDF-85780778D49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9203B2B3-5092-4880-A433-472483B806C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
   </bookViews>
@@ -24,13 +24,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos_Crudos!$A$1:$I$1</definedName>
-    <definedName name="SegmentaciónDeDatos_Canal">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Canal1">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Categoria">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Ciudad_Cliente">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Vendedor">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -38,6 +39,7 @@
         <x14:slicerCache r:id="rId10"/>
         <x14:slicerCache r:id="rId11"/>
         <x14:slicerCache r:id="rId12"/>
+        <x14:slicerCache r:id="rId13"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="63">
   <si>
     <t>ID_Venta</t>
   </si>
@@ -325,7 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -336,6 +337,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,21 +984,24 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tablas_Dinamicas!$A$6:$A$7</c:f>
+              <c:f>Tablas_Dinamicas!$A$6:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Muebles</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tecnología</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tablas_Dinamicas!$B$6:$B$7</c:f>
+              <c:f>Tablas_Dinamicas!$B$6:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>7200</c:v>
                 </c:pt>
@@ -1035,23 +1040,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tablas_Dinamicas!$A$6:$A$7</c:f>
+              <c:f>Tablas_Dinamicas!$A$6:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Muebles</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tecnología</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tablas_Dinamicas!$C$6:$C$7</c:f>
+              <c:f>Tablas_Dinamicas!$C$6:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1071,7 +1082,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tienda - Suma de Total_Ventas</c:v>
+                  <c:v>Online - Suma de Total_Ventas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1088,30 +1099,36 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tablas_Dinamicas!$A$6:$A$7</c:f>
+              <c:f>Tablas_Dinamicas!$A$6:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Muebles</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tecnología</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tablas_Dinamicas!$D$6:$D$7</c:f>
+              <c:f>Tablas_Dinamicas!$D$6:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1800</c:v>
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-5F61-4A71-BE75-232FC779DBC3}"/>
+              <c16:uniqueId val="{00000019-F8CE-49B5-8EE4-9AE62E748FFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1124,7 +1141,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tienda - Suma de Margen</c:v>
+                  <c:v>Online - Suma de Margen</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1141,30 +1158,154 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tablas_Dinamicas!$A$6:$A$7</c:f>
+              <c:f>Tablas_Dinamicas!$A$6:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Muebles</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tecnología</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tablas_Dinamicas!$E$6:$E$7</c:f>
+              <c:f>Tablas_Dinamicas!$E$6:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>360</c:v>
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-5F61-4A71-BE75-232FC779DBC3}"/>
+              <c16:uniqueId val="{0000001A-F8CE-49B5-8EE4-9AE62E748FFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$F$3:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tienda - Suma de Total_Ventas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$A$6:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Muebles</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tecnología</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tablas_Dinamicas!$F$6:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-F8CE-49B5-8EE4-9AE62E748FFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$G$3:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tienda - Suma de Margen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tablas_Dinamicas!$A$6:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Muebles</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tecnología</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tablas_Dinamicas!$G$6:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-F8CE-49B5-8EE4-9AE62E748FFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2514,7 +2655,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3025,7 +3166,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3076,19 +3217,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3849,9 +3978,8 @@
         <c:idx val="5"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:ln>
@@ -4064,9 +4192,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -9067,240 +9194,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Ciudad_Cliente">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DC0437-48FF-11F7-174D-C3E2C2E8457D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Ciudad_Cliente"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6448425" y="1695451"/>
-              <a:ext cx="1828800" cy="1123950"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100"/>
-                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
-Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Canal">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7D243C-57B1-88EB-334E-4505EA64B899}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Canal"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4610100" y="1695451"/>
-              <a:ext cx="1828800" cy="1123950"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100"/>
-                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
-Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Categoria">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE511AB-ACBB-F66C-22BB-F826EB8EAE5A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Categoria"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4610100" y="2828926"/>
-              <a:ext cx="1828800" cy="1095374"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100"/>
-                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
-Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -9407,6 +9300,318 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="Canal 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B225C605-7044-4C9E-9B25-14A502477A2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Canal 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5362575" y="9105900"/>
+              <a:ext cx="1828800" cy="1285875"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="10" name="Vendedor">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17032B73-C4B4-8344-5858-08046C3E4D93}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Vendedor"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5372100" y="7800976"/>
+              <a:ext cx="1828800" cy="1181100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="11" name="Categoria">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6D243B-6EF4-C35B-956E-903E41B34503}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Categoria"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5353050" y="6696075"/>
+              <a:ext cx="1828800" cy="933450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="12" name="Ciudad_Cliente">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E226C5D2-CCB7-96B3-F4FB-06C0C7B7B803}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Ciudad_Cliente"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5372100" y="10467975"/>
+              <a:ext cx="1828800" cy="1209675"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9528,6 +9733,318 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Categoria 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{296AAC00-BE8F-4451-BD8F-A022F9318B74}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Categoria 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4057650" y="180975"/>
+              <a:ext cx="1419225" cy="933450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Vendedor 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FBCFC5D-3F83-45A0-9244-B0FB8B18052A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Vendedor 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5600701" y="190500"/>
+              <a:ext cx="1333500" cy="1181100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Canal 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34DF194B-712B-47BC-92B9-FC437C6F63EC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Canal 2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7105650" y="190501"/>
+              <a:ext cx="1419225" cy="1162050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Ciudad_Cliente 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3BBEDB3-4F02-4238-B296-06E4987459EF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Ciudad_Cliente 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8677275" y="190500"/>
+              <a:ext cx="1438275" cy="1209675"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9594,7 +10111,7 @@
     <cacheField name="Meta_Vendedor" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000" maxValue="15000"/>
     </cacheField>
-    <cacheField name="Margen" numFmtId="0" formula="Total_Ventas *0.2" databaseField="0"/>
+    <cacheField name="Margen" numFmtId="0" formula="Total_Ventas*0.2" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -9706,13 +10223,27 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DB9D872-E7D2-478B-B3B4-BF0E872D0C93}" name="TablaDinámica4" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DB9D872-E7D2-478B-B3B4-BF0E872D0C93}" name="TablaDinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A70:B74" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="4">
         <item x="2"/>
@@ -9732,7 +10263,13 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -9959,7 +10496,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2B64918-61D5-4DCB-943D-2111D1AA811E}" name="TablaDinámica3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2B64918-61D5-4DCB-943D-2111D1AA811E}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A48:C52" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField numFmtId="14" showAll="0"/>
@@ -9981,11 +10518,31 @@
         </pivotArea>
       </autoSortScope>
     </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -10077,14 +10634,35 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A22A86CF-E7E4-4661-90C6-08D2054DA74B}" name="TablaDinámica2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A22A86CF-E7E4-4661-90C6-08D2054DA74B}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A28:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -10155,12 +10733,19 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1D9401C-0867-4023-8396-216647198446}" name="TablaDinámica1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:G7" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1D9401C-0867-4023-8396-216647198446}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:I8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0">
       <items count="4">
         <item x="0"/>
@@ -10172,7 +10757,7 @@
     <pivotField axis="axisCol" showAll="0">
       <items count="4">
         <item x="2"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -10182,7 +10767,7 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
         <item x="0"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10197,9 +10782,12 @@
   <rowFields count="1">
     <field x="7"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="3">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -10209,9 +10797,16 @@
     <field x="4"/>
     <field x="-2"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="8">
     <i>
       <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
       <x/>
     </i>
     <i r="1" i="1">
@@ -10340,16 +10935,19 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Ciudad_Cliente" xr10:uid="{A0577B1D-4BA0-4B00-97A5-E1E5F1405705}" sourceName="Ciudad_Cliente">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Canal1" xr10:uid="{6428AF16-56FC-47F6-8679-261566D1759D}" sourceName="Canal">
   <pivotTables>
+    <pivotTable tabId="8" name="TablaDinámica4"/>
     <pivotTable tabId="8" name="TablaDinámica1"/>
+    <pivotTable tabId="8" name="TablaDinámica2"/>
+    <pivotTable tabId="8" name="TablaDinámica3"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1950897236">
       <items count="3">
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
         <i x="0" s="1"/>
-        <i x="2" s="1"/>
-        <i x="1" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -10357,16 +10955,19 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Canal" xr10:uid="{620ACF3E-581E-439C-9624-E503D850EF54}" sourceName="Canal">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Vendedor" xr10:uid="{AF6E10E0-1602-4482-8F8B-BDE40C5B7C35}" sourceName="Vendedor">
   <pivotTables>
+    <pivotTable tabId="8" name="TablaDinámica3"/>
     <pivotTable tabId="8" name="TablaDinámica1"/>
+    <pivotTable tabId="8" name="TablaDinámica2"/>
+    <pivotTable tabId="8" name="TablaDinámica4"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1950897236">
       <items count="3">
         <i x="2" s="1"/>
-        <i x="1"/>
         <i x="0" s="1"/>
+        <i x="1" s="1"/>
       </items>
     </tabular>
   </data>
@@ -10374,15 +10975,38 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Categoria" xr10:uid="{9D128584-2947-4CE9-8DBB-85829E51BAB7}" sourceName="Categoria">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Categoria" xr10:uid="{5546E5AE-7991-45F3-A890-1A50B79B4556}" sourceName="Categoria">
   <pivotTables>
+    <pivotTable tabId="8" name="TablaDinámica2"/>
     <pivotTable tabId="8" name="TablaDinámica1"/>
+    <pivotTable tabId="8" name="TablaDinámica3"/>
+    <pivotTable tabId="8" name="TablaDinámica4"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1950897236">
       <items count="2">
         <i x="0" s="1"/>
-        <i x="1"/>
+        <i x="1" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Ciudad_Cliente" xr10:uid="{D6E9CD0B-B8D7-4122-B307-4B1FD792A75C}" sourceName="Ciudad_Cliente">
+  <pivotTables>
+    <pivotTable tabId="8" name="TablaDinámica3"/>
+    <pivotTable tabId="8" name="TablaDinámica1"/>
+    <pivotTable tabId="8" name="TablaDinámica2"/>
+    <pivotTable tabId="8" name="TablaDinámica4"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1950897236">
+      <items count="3">
+        <i x="0" s="1"/>
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
       </items>
     </tabular>
   </data>
@@ -10391,9 +11015,19 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Ciudad_Cliente" xr10:uid="{B64D52E5-2CBD-4D43-9F16-6F51226004CF}" cache="SegmentaciónDeDatos_Ciudad_Cliente" caption="Ciudad_Cliente" rowHeight="241300"/>
-  <slicer name="Canal" xr10:uid="{5288BE5D-8717-4BCE-AC6E-EC3421CD1811}" cache="SegmentaciónDeDatos_Canal" caption="Canal" rowHeight="241300"/>
-  <slicer name="Categoria" xr10:uid="{95438D9A-F1EB-41AD-B2A7-97F491E122BC}" cache="SegmentaciónDeDatos_Categoria" caption="Categoria" rowHeight="241300"/>
+  <slicer name="Canal 1" xr10:uid="{1B94EE67-207A-48ED-B233-03BB10B431B6}" cache="SegmentaciónDeDatos_Canal1" caption="Canal" rowHeight="241300"/>
+  <slicer name="Vendedor" xr10:uid="{7FDFF949-029F-46E1-8826-BE1472EC294B}" cache="SegmentaciónDeDatos_Vendedor" caption="Vendedor" rowHeight="241300"/>
+  <slicer name="Categoria" xr10:uid="{8AE9F281-67D4-490E-B273-190C976E46A3}" cache="SegmentaciónDeDatos_Categoria" caption="Categoria" rowHeight="241300"/>
+  <slicer name="Ciudad_Cliente" xr10:uid="{21E693D7-C638-4413-AA45-1729F6E0D302}" cache="SegmentaciónDeDatos_Ciudad_Cliente" caption="Ciudad_Cliente" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Canal 2" xr10:uid="{66948C24-1FD8-44FD-8646-6DF55DC92FF8}" cache="SegmentaciónDeDatos_Canal1" caption="Canal" style="SlicerStyleLight3" rowHeight="241300"/>
+  <slicer name="Vendedor 1" xr10:uid="{DD2D11A1-A034-4308-8F51-148FE0E2D644}" cache="SegmentaciónDeDatos_Vendedor" caption="Vendedor" style="SlicerStyleLight3" rowHeight="241300"/>
+  <slicer name="Categoria 1" xr10:uid="{5A88A70B-DF1A-4EFF-81DE-E7C930A6484A}" cache="SegmentaciónDeDatos_Categoria" caption="Categoria" style="SlicerStyleLight3" rowHeight="241300"/>
+  <slicer name="Ciudad_Cliente 1" xr10:uid="{DFD84570-663B-4585-8462-B8623B5639A4}" cache="SegmentaciónDeDatos_Ciudad_Cliente" caption="Ciudad_Cliente" style="SlicerStyleLight3" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -11073,7 +11707,7 @@
         <v>900</v>
       </c>
       <c r="K2">
-        <f>G2*J2</f>
+        <f t="shared" ref="K2:K7" si="0">G2*J2</f>
         <v>1800</v>
       </c>
       <c r="L2" t="str">
@@ -11127,11 +11761,11 @@
         <v>2500</v>
       </c>
       <c r="K3">
-        <f>G3*J3</f>
+        <f t="shared" si="0"/>
         <v>7500</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L6" si="0">IF(K3&gt;3000,"Alta",IF(K3&gt;1000,"Media","Baja"))</f>
+        <f t="shared" ref="L3:L6" si="1">IF(K3&gt;3000,"Alta",IF(K3&gt;1000,"Media","Baja"))</f>
         <v>Alta</v>
       </c>
       <c r="M3">
@@ -11181,11 +11815,11 @@
         <v>2500</v>
       </c>
       <c r="K4">
-        <f>G4*J4</f>
+        <f t="shared" si="0"/>
         <v>60000</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Alta</v>
       </c>
       <c r="M4">
@@ -11235,11 +11869,11 @@
         <v>900</v>
       </c>
       <c r="K5">
-        <f>G5*J5</f>
+        <f t="shared" si="0"/>
         <v>7200</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Alta</v>
       </c>
       <c r="M5">
@@ -11289,11 +11923,11 @@
         <v>300</v>
       </c>
       <c r="K6">
-        <f>G6*J6</f>
+        <f t="shared" si="0"/>
         <v>4800</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Alta</v>
       </c>
       <c r="M6">
@@ -11343,7 +11977,7 @@
         <v>2500</v>
       </c>
       <c r="K7">
-        <f>G7*J7</f>
+        <f t="shared" si="0"/>
         <v>7500</v>
       </c>
       <c r="L7" t="str">
@@ -11793,10 +12427,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22DF20C-5319-4F61-AD50-79BACA523E43}">
-  <dimension ref="A3:G74"/>
+  <dimension ref="A3:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11806,32 +12440,35 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>53</v>
       </c>
@@ -11847,51 +12484,96 @@
       <c r="E5" t="s">
         <v>59</v>
       </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="12">
         <v>7200</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="12">
         <v>1440</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="12">
+        <v>4800</v>
+      </c>
+      <c r="E6" s="12">
+        <v>960</v>
+      </c>
+      <c r="F6" s="12">
         <v>1800</v>
       </c>
-      <c r="E6" s="8">
+      <c r="G6" s="12">
         <v>360</v>
       </c>
-      <c r="F6" s="8">
-        <v>9000</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1800</v>
+      <c r="H6" s="12">
+        <v>13800</v>
+      </c>
+      <c r="I6" s="12">
+        <v>2760</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>60000</v>
+      </c>
+      <c r="E7" s="12">
+        <v>12000</v>
+      </c>
+      <c r="F7" s="12">
+        <v>15000</v>
+      </c>
+      <c r="G7" s="12">
+        <v>3000</v>
+      </c>
+      <c r="H7" s="12">
+        <v>75000</v>
+      </c>
+      <c r="I7" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B8" s="12">
         <v>7200</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C8" s="12">
         <v>1440</v>
       </c>
-      <c r="D7" s="8">
-        <v>1800</v>
-      </c>
-      <c r="E7" s="8">
-        <v>360</v>
-      </c>
-      <c r="F7" s="8">
-        <v>9000</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1800</v>
+      <c r="D8" s="12">
+        <v>64800</v>
+      </c>
+      <c r="E8" s="12">
+        <v>12960</v>
+      </c>
+      <c r="F8" s="12">
+        <v>16800</v>
+      </c>
+      <c r="G8" s="12">
+        <v>3360</v>
+      </c>
+      <c r="H8" s="12">
+        <v>88800</v>
+      </c>
+      <c r="I8" s="12">
+        <v>17760</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -11906,7 +12588,7 @@
       <c r="A29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="12">
         <v>13800</v>
       </c>
     </row>
@@ -11914,7 +12596,7 @@
       <c r="A30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="12">
         <v>75000</v>
       </c>
     </row>
@@ -11922,7 +12604,7 @@
       <c r="A31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="12">
         <v>88800</v>
       </c>
     </row>
@@ -11941,10 +12623,10 @@
       <c r="A49" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="12">
         <v>66600</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="12">
         <v>13320</v>
       </c>
     </row>
@@ -11952,10 +12634,10 @@
       <c r="A50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="12">
         <v>15000</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="12">
         <v>3000</v>
       </c>
     </row>
@@ -11963,10 +12645,10 @@
       <c r="A51" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="12">
         <v>7200</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="12">
         <v>1440</v>
       </c>
     </row>
@@ -11974,10 +12656,10 @@
       <c r="A52" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="12">
         <v>88800</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="12">
         <v>17760</v>
       </c>
     </row>
@@ -11993,7 +12675,7 @@
       <c r="A71" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B71" s="11">
         <v>0.72972972972972971</v>
       </c>
     </row>
@@ -12001,7 +12683,7 @@
       <c r="A72" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="12">
+      <c r="B72" s="11">
         <v>0.1891891891891892</v>
       </c>
     </row>
@@ -12009,7 +12691,7 @@
       <c r="A73" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="11">
         <v>8.1081081081081086E-2</v>
       </c>
     </row>
@@ -12017,7 +12699,7 @@
       <c r="A74" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B74" s="12">
+      <c r="B74" s="11">
         <v>1</v>
       </c>
     </row>
@@ -12038,8 +12720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1AB857-B6E6-4422-94BD-7394F300F344}">
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12049,45 +12731,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <f>Analisis!B2</f>
         <v>88800</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <f>SUM(tbl_Ventas[Comision])</f>
         <v>5742</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <f>AVERAGE(tbl_Ventas[Total_Ventas])</f>
         <v>14800</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <f>C3/SUM(tbl_Ventas[Meta_Vendedor])</f>
         <v>1.1240506329113924</v>
       </c>
@@ -12095,5 +12777,12 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
+++ b/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Excel_Projects\Analisis de venta y rendimiento comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9203B2B3-5092-4880-A433-472483B806C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8165036C-84B5-4A09-90F4-14E0B72B4485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="64">
   <si>
     <t>ID_Venta</t>
   </si>
@@ -238,17 +238,24 @@
     <t>Daniel Saenz</t>
   </si>
   <si>
-    <t>KPI</t>
+    <t>% Cumplimiento Meta</t>
   </si>
   <si>
-    <t>% Cumplimiento Meta</t>
+    <t>Total_de_Ventas</t>
+  </si>
+  <si>
+    <t>Margen_Ganancia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,7 +272,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -273,7 +286,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -289,7 +302,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -327,17 +340,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1128,7 +1157,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-F8CE-49B5-8EE4-9AE62E748FFA}"/>
+              <c16:uniqueId val="{0000001D-F8CE-49B5-8EE4-9AE62E748FFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1187,7 +1216,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-F8CE-49B5-8EE4-9AE62E748FFA}"/>
+              <c16:uniqueId val="{0000001E-F8CE-49B5-8EE4-9AE62E748FFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1246,7 +1275,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-F8CE-49B5-8EE4-9AE62E748FFA}"/>
+              <c16:uniqueId val="{0000001F-F8CE-49B5-8EE4-9AE62E748FFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1305,7 +1334,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-F8CE-49B5-8EE4-9AE62E748FFA}"/>
+              <c16:uniqueId val="{00000020-F8CE-49B5-8EE4-9AE62E748FFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2135,7 +2164,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de Total_Ventas</c:v>
+                  <c:v>Total_de_Ventas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2261,7 +2290,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de Margen</c:v>
+                  <c:v>Margen_Ganancia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3206,9 +3235,9 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:ln>
@@ -3221,6 +3250,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:numFmt formatCode="[$$-240A]\ #,##0" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3229,7 +3259,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -3258,9 +3288,34 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3285,9 +3340,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -3296,7 +3351,30 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-1747-4289-AB4E-2ED1F7C03E1B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
+            <c:numFmt formatCode="[$$-240A]\ #,##0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3305,7 +3383,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -3336,6 +3414,15 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3398,7 +3485,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="70"/>
         <c:overlap val="-27"/>
         <c:axId val="740361167"/>
         <c:axId val="740365967"/>
@@ -3411,7 +3498,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3462,7 +3549,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3504,37 +3591,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3582,7 +3638,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -4059,7 +4114,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de Total_Ventas</c:v>
+                  <c:v>Total_de_Ventas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4185,7 +4240,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de Margen</c:v>
+                  <c:v>Margen_Ganancia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4416,6 +4471,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.64604547260376577"/>
+          <c:y val="0.45094356955380571"/>
+          <c:w val="0.31311503129416512"/>
+          <c:h val="0.18750131233595801"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4547,7 +4612,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> por Canal</a:t>
+              <a:t> de Ventas por Canal</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4950,6 +5015,22 @@
         <c:idx val="9"/>
         <c:spPr>
           <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
             <a:schemeClr val="accent1">
               <a:lumMod val="60000"/>
               <a:lumOff val="40000"/>
@@ -4964,25 +5045,12 @@
         </c:spPr>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:srgbClr val="7F7FB5"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
         <c:idx val="11"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="75000"/>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:ln w="19050">
@@ -4996,8 +5064,8 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="-5.5555555555555558E-3"/>
-              <c:y val="-1.3888888888888888E-2"/>
+              <c:x val="3.0765916679421023E-3"/>
+              <c:y val="-3.5935134664183577E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -5064,9 +5132,8 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
@@ -5087,7 +5154,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7F7FB5"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -5107,8 +5177,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
@@ -5129,8 +5200,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.5555555555555558E-3"/>
-                  <c:y val="-1.3888888888888888E-2"/>
+                  <c:x val="3.0765916679421023E-3"/>
+                  <c:y val="-3.5935134664183577E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -5251,7 +5322,7 @@
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
-        <c:holeSize val="75"/>
+        <c:holeSize val="80"/>
       </c:doughnutChart>
       <c:spPr>
         <a:noFill/>
@@ -5302,6 +5373,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
   <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
@@ -9349,7 +9421,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5362575" y="9105900"/>
+              <a:off x="5448300" y="9105900"/>
               <a:ext cx="1828800" cy="1285875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9427,7 +9499,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5372100" y="7800976"/>
+              <a:off x="5457825" y="7800976"/>
               <a:ext cx="1828800" cy="1181100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9505,7 +9577,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5353050" y="6696075"/>
+              <a:off x="5438775" y="6696075"/>
               <a:ext cx="1828800" cy="933450"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9583,7 +9655,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5372100" y="10467975"/>
+              <a:off x="5457825" y="10467975"/>
               <a:ext cx="1828800" cy="1209675"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9622,15 +9694,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9660,15 +9732,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>547688</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>576263</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9697,16 +9769,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9737,14 +9809,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -9780,7 +9852,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4057650" y="180975"/>
+              <a:off x="4610100" y="638175"/>
               <a:ext cx="1419225" cy="933450"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9815,14 +9887,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -9858,8 +9930,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5600701" y="190500"/>
-              <a:ext cx="1333500" cy="1181100"/>
+              <a:off x="6153151" y="647700"/>
+              <a:ext cx="1333500" cy="1190625"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9893,14 +9965,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -9936,8 +10008,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7105650" y="190501"/>
-              <a:ext cx="1419225" cy="1162050"/>
+              <a:off x="7658100" y="647701"/>
+              <a:ext cx="1419225" cy="1190624"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9971,14 +10043,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -10014,7 +10086,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8677275" y="190500"/>
+              <a:off x="9229725" y="647700"/>
               <a:ext cx="1438275" cy="1209675"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -10045,7 +10117,154 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CuadroTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BE4CFB-DF05-889A-FB51-46A48E1A1FE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010150" y="142875"/>
+          <a:ext cx="3743325" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ANÁLISIS DE VENTAS 2024</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.36709</cdr:x>
+      <cdr:y>0.45228</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.65823</cdr:x>
+      <cdr:y>0.6639</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="Dashboard!$B$5">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5193B5-F250-7534-992D-46F009A0EB90}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1381125" y="1038225"/>
+          <a:ext cx="1095375" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fld id="{9E48C580-1B36-4694-B3A2-B80F96CA39B9}" type="TxLink">
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>$ 88,800</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Ventas Totales</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1000" b="1" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10496,7 +10715,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2B64918-61D5-4DCB-943D-2111D1AA811E}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2B64918-61D5-4DCB-943D-2111D1AA811E}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A48:C52" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField numFmtId="14" showAll="0"/>
@@ -10580,8 +10799,8 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Suma de Total_Ventas" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Margen" fld="14" baseField="0" baseItem="0"/>
+    <dataField name="Total_de_Ventas" fld="9" baseField="2" baseItem="1"/>
+    <dataField name="Margen_Ganancia" fld="14" baseField="2" baseItem="1"/>
   </dataFields>
   <chartFormats count="4">
     <chartFormat chart="0" format="0" series="1">
@@ -10634,7 +10853,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A22A86CF-E7E4-4661-90C6-08D2054DA74B}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A22A86CF-E7E4-4661-90C6-08D2054DA74B}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A28:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField numFmtId="14" showAll="0"/>
@@ -10700,7 +10919,7 @@
   <dataFields count="1">
     <dataField name="Suma de Total_Ventas" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="3">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -10715,6 +10934,18 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -12430,14 +12661,14 @@
   <dimension ref="A3:I74"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -12495,28 +12726,28 @@
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>7200</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>1440</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>4800</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <v>960</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <v>1800</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="9">
         <v>360</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="9">
         <v>13800</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="9">
         <v>2760</v>
       </c>
     </row>
@@ -12524,26 +12755,26 @@
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9">
         <v>0</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>60000</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <v>12000</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="9">
         <v>15000</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="9">
         <v>3000</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="9">
         <v>75000</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="9">
         <v>15000</v>
       </c>
     </row>
@@ -12551,28 +12782,28 @@
       <c r="A8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>7200</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>1440</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <v>64800</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <v>12960</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="9">
         <v>16800</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="9">
         <v>3360</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="9">
         <v>88800</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="9">
         <v>17760</v>
       </c>
     </row>
@@ -12588,7 +12819,7 @@
       <c r="A29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="9">
         <v>13800</v>
       </c>
     </row>
@@ -12596,7 +12827,7 @@
       <c r="A30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="9">
         <v>75000</v>
       </c>
     </row>
@@ -12604,7 +12835,7 @@
       <c r="A31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="9">
         <v>88800</v>
       </c>
     </row>
@@ -12613,20 +12844,20 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="9">
         <v>66600</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="9">
         <v>13320</v>
       </c>
     </row>
@@ -12634,10 +12865,10 @@
       <c r="A50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="9">
         <v>15000</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="9">
         <v>3000</v>
       </c>
     </row>
@@ -12645,10 +12876,10 @@
       <c r="A51" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="9">
         <v>7200</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="9">
         <v>1440</v>
       </c>
     </row>
@@ -12656,10 +12887,10 @@
       <c r="A52" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="9">
         <v>88800</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="9">
         <v>17760</v>
       </c>
     </row>
@@ -12675,7 +12906,7 @@
       <c r="A71" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="11">
+      <c r="B71" s="8">
         <v>0.72972972972972971</v>
       </c>
     </row>
@@ -12683,7 +12914,7 @@
       <c r="A72" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="11">
+      <c r="B72" s="8">
         <v>0.1891891891891892</v>
       </c>
     </row>
@@ -12691,7 +12922,7 @@
       <c r="A73" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="11">
+      <c r="B73" s="8">
         <v>8.1081081081081086E-2</v>
       </c>
     </row>
@@ -12699,7 +12930,7 @@
       <c r="A74" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B74" s="11">
+      <c r="B74" s="8">
         <v>1</v>
       </c>
     </row>
@@ -12718,59 +12949,68 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1AB857-B6E6-4422-94BD-7394F300F344}">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>43</v>
-      </c>
+    <row r="1" spans="2:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
-    <row r="3" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+    <row r="4" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="17">
         <f>Analisis!B2</f>
         <v>88800</v>
       </c>
+      <c r="C5" s="14">
+        <f>AVERAGE(tbl_Ventas[Total_Ventas])</f>
+        <v>14800</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
     </row>
-    <row r="4" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+    <row r="6" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C7" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13">
         <f>SUM(tbl_Ventas[Comision])</f>
         <v>5742</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="10">
-        <f>AVERAGE(tbl_Ventas[Total_Ventas])</f>
-        <v>14800</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="10">
-        <f>C3/SUM(tbl_Ventas[Meta_Vendedor])</f>
+      <c r="C8" s="16">
+        <f>B5/SUM(tbl_Ventas[Meta_Vendedor])</f>
         <v>1.1240506329113924</v>
       </c>
     </row>

--- a/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
+++ b/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Excel_Projects\Analisis de venta y rendimiento comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8165036C-84B5-4A09-90F4-14E0B72B4485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76BFE8C-8EA7-457A-945B-B03F96064888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos_Crudos" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="68">
   <si>
     <t>ID_Venta</t>
   </si>
@@ -238,22 +238,35 @@
     <t>Daniel Saenz</t>
   </si>
   <si>
-    <t>% Cumplimiento Meta</t>
-  </si>
-  <si>
     <t>Total_de_Ventas</t>
   </si>
   <si>
     <t>Margen_Ganancia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>Cumplimiento Meta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -319,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -341,32 +354,35 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3178,26 +3194,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
@@ -3205,12 +3201,7 @@
         <c:idx val="0"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -3220,12 +3211,7 @@
         <c:idx val="1"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -3293,10 +3279,6 @@
                 <a:prstGeom prst="rect">
                   <a:avLst/>
                 </a:prstGeom>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
               </c15:spPr>
             </c:ext>
           </c:extLst>
@@ -3418,10 +3400,6 @@
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
                 </c15:spPr>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3546,39 +3524,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="740361167"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -5631,46 +5582,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7702,7 +7613,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7906,509 +7817,6 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -8709,7 +8117,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9387,8 +8795,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Canal 1">
@@ -9411,7 +8819,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9465,8 +8873,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="Vendedor">
@@ -9489,7 +8897,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9543,8 +8951,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="Categoria">
@@ -9567,7 +8975,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9621,8 +9029,8 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="12" name="Ciudad_Cliente">
@@ -9645,7 +9053,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9818,8 +9226,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Categoria 1">
@@ -9842,7 +9250,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9896,8 +9304,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Vendedor 1">
@@ -9920,7 +9328,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9974,8 +9382,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Canal 2">
@@ -9998,7 +9406,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10047,13 +9455,13 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Ciudad_Cliente 1">
@@ -10076,7 +9484,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10192,6 +9600,405 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1192350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Analisis!B2">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectángulo: esquinas redondeadas 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA0A7D1-C0D8-ADB8-031F-713A39F05EFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="228600"/>
+          <a:ext cx="1440000" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Ventas Totales</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{72D3EE11-50CD-4772-A4F3-D05AD0417DBD}" type="TxLink">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>$ 88,800</a:t>
+          </a:fld>
+          <a:endParaRPr lang="es-CO" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1354275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Analisis!B5">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectángulo: esquinas redondeadas 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D00C47B-BF94-4EF6-BF11-7F866B04BDBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="228600"/>
+          <a:ext cx="1440000" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Ticket Promedio</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{687C1C76-59D1-4155-808D-251692B08C72}" type="TxLink">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>$ 14,800</a:t>
+          </a:fld>
+          <a:endParaRPr lang="es-CO" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1192350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Analisis!B3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectángulo: esquinas redondeadas 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C535E7F-4779-4DED-94A7-2F99B3A67B73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="1095375"/>
+          <a:ext cx="1440000" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Total Comisiones</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{BDF1D646-3D49-4949-A173-C7CEB5A0BFEE}" type="TxLink">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>5742</a:t>
+          </a:fld>
+          <a:endParaRPr lang="es-CO" sz="4000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1352549</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Analisis!B6">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectángulo: esquinas redondeadas 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE94B26C-8B8A-49DB-839E-40C15D6F65F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114549" y="1095375"/>
+          <a:ext cx="1438276" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>% Cumpliento Meta</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{B8AA38AA-A340-4A43-B405-2ACE4F5FB692}" type="TxLink">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>112.4%</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10199,14 +10006,14 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.36709</cdr:x>
-      <cdr:y>0.45228</cdr:y>
+      <cdr:x>0.35696</cdr:x>
+      <cdr:y>0.44398</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.65823</cdr:x>
-      <cdr:y>0.6639</cdr:y>
+      <cdr:x>0.6481</cdr:x>
+      <cdr:y>0.68465</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="Dashboard!$B$5">
+    <cdr:sp macro="" textlink="Analisis!$B$2">
       <cdr:nvSpPr>
         <cdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -10219,28 +10026,30 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1381125" y="1038225"/>
-          <a:ext cx="1095375" cy="485775"/>
+          <a:off x="1343030" y="1019170"/>
+          <a:ext cx="1095378" cy="552455"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fld id="{9E48C580-1B36-4694-B3A2-B80F96CA39B9}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200">
+          <a:pPr algn="ctr"/>
+          <a:fld id="{FB06B89B-FED8-4410-AC78-CABE16CD6017}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>$ 88,800</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200">
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -10249,8 +10058,9 @@
           </a:endParaRPr>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12485,7 +12295,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12508,7 +12318,7 @@
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="18">
         <f>SUM(tbl_Ventas[Total_Ventas])</f>
         <v>88800</v>
       </c>
@@ -12608,7 +12418,7 @@
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="18">
         <f>AVERAGE(tbl_Ventas[Total_Ventas])</f>
         <v>14800</v>
       </c>
@@ -12630,6 +12440,15 @@
       <c r="M5" t="str">
         <f t="shared" si="0"/>
         <v>No Cumple</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="19">
+        <f>B2/SUM(tbl_Ventas[Meta_Vendedor])</f>
+        <v>1.1240506329113924</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -12726,28 +12545,28 @@
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>7200</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>1440</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6">
         <v>4800</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6">
         <v>960</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6">
         <v>1800</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6">
         <v>360</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6">
         <v>13800</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6">
         <v>2760</v>
       </c>
     </row>
@@ -12755,26 +12574,25 @@
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9">
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7">
         <v>60000</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7">
         <v>12000</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7">
         <v>15000</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7">
         <v>3000</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7">
         <v>75000</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7">
         <v>15000</v>
       </c>
     </row>
@@ -12782,28 +12600,28 @@
       <c r="A8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>7200</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>1440</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <v>64800</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8">
         <v>12960</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8">
         <v>16800</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8">
         <v>3360</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8">
         <v>88800</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8">
         <v>17760</v>
       </c>
     </row>
@@ -12819,7 +12637,7 @@
       <c r="A29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29">
         <v>13800</v>
       </c>
     </row>
@@ -12827,7 +12645,7 @@
       <c r="A30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30">
         <v>75000</v>
       </c>
     </row>
@@ -12835,7 +12653,7 @@
       <c r="A31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31">
         <v>88800</v>
       </c>
     </row>
@@ -12844,20 +12662,20 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
         <v>62</v>
-      </c>
-      <c r="C48" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49">
         <v>66600</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49">
         <v>13320</v>
       </c>
     </row>
@@ -12865,10 +12683,10 @@
       <c r="A50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50">
         <v>15000</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50">
         <v>3000</v>
       </c>
     </row>
@@ -12876,10 +12694,10 @@
       <c r="A51" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51">
         <v>7200</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51">
         <v>1440</v>
       </c>
     </row>
@@ -12887,10 +12705,10 @@
       <c r="A52" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52">
         <v>88800</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52">
         <v>17760</v>
       </c>
     </row>
@@ -12951,8 +12769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1AB857-B6E6-4422-94BD-7394F300F344}">
   <dimension ref="B1:O8"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12965,54 +12783,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17">
-        <f>Analisis!B2</f>
-        <v>88800</v>
-      </c>
-      <c r="C5" s="14">
-        <f>AVERAGE(tbl_Ventas[Total_Ventas])</f>
-        <v>14800</v>
-      </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11"/>
+      <c r="B5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
-        <f>SUM(tbl_Ventas[Comision])</f>
-        <v>5742</v>
-      </c>
-      <c r="C8" s="16">
-        <f>B5/SUM(tbl_Ventas[Meta_Vendedor])</f>
-        <v>1.1240506329113924</v>
-      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
+++ b/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Excel_Projects\Analisis de venta y rendimiento comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76BFE8C-8EA7-457A-945B-B03F96064888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8509799C-2FF8-4513-9B3D-93410B3B4411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
   </bookViews>
@@ -315,7 +315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -355,34 +355,39 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1291,7 +1296,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-F8CE-49B5-8EE4-9AE62E748FFA}"/>
+              <c16:uniqueId val="{00000000-CE50-414F-8E18-4D67AF348B30}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1350,7 +1355,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-F8CE-49B5-8EE4-9AE62E748FFA}"/>
+              <c16:uniqueId val="{00000001-CE50-414F-8E18-4D67AF348B30}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9099,16 +9104,16 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -9137,16 +9142,16 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>547688</xdr:colOff>
+      <xdr:colOff>157163</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>576263</xdr:colOff>
+      <xdr:colOff>185738</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -9175,16 +9180,16 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:colOff>1047750</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -9216,18 +9221,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Categoria 1">
@@ -9250,7 +9255,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9260,7 +9265,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4610100" y="638175"/>
+              <a:off x="4981575" y="638175"/>
               <a:ext cx="1419225" cy="933450"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9289,23 +9294,23 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
+      <xdr:colOff>400051</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Vendedor 1">
@@ -9328,7 +9333,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9338,7 +9343,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6153151" y="647700"/>
+              <a:off x="6524626" y="647700"/>
               <a:ext cx="1333500" cy="1190625"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9367,23 +9372,23 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Canal 2">
@@ -9406,7 +9411,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9416,7 +9421,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7658100" y="647701"/>
+              <a:off x="8029575" y="647701"/>
               <a:ext cx="1419225" cy="1190624"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9445,23 +9450,23 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Ciudad_Cliente 1">
@@ -9484,7 +9489,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9494,8 +9499,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9229725" y="647700"/>
-              <a:ext cx="1438275" cy="1209675"/>
+              <a:off x="9601200" y="647700"/>
+              <a:ext cx="1676400" cy="1209675"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9523,7 +9528,7 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9600,16 +9605,16 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1192350</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>106500</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -9626,7 +9631,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="514350" y="228600"/>
+          <a:off x="857250" y="228600"/>
           <a:ext cx="1440000" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -9697,16 +9702,16 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1354275</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>49350</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -9723,7 +9728,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2105025" y="228600"/>
+          <a:off x="2447925" y="228600"/>
           <a:ext cx="1440000" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -9797,16 +9802,16 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1192350</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>106500</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -9823,7 +9828,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="514350" y="1095375"/>
+          <a:off x="857250" y="1095375"/>
           <a:ext cx="1440000" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -9897,16 +9902,16 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1352549</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -9923,7 +9928,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2114549" y="1095375"/>
+          <a:off x="2457449" y="1095375"/>
           <a:ext cx="1438276" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -12318,7 +12323,7 @@
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="10">
         <f>SUM(tbl_Ventas[Total_Ventas])</f>
         <v>88800</v>
       </c>
@@ -12418,7 +12423,7 @@
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="10">
         <f>AVERAGE(tbl_Ventas[Total_Ventas])</f>
         <v>14800</v>
       </c>
@@ -12446,7 +12451,7 @@
       <c r="A6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="11">
         <f>B2/SUM(tbl_Ventas[Meta_Vendedor])</f>
         <v>1.1240506329113924</v>
       </c>
@@ -12545,28 +12550,28 @@
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="12">
         <v>7200</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="12">
         <v>1440</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="12">
         <v>4800</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="12">
         <v>960</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="12">
         <v>1800</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="12">
         <v>360</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="12">
         <v>13800</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="12">
         <v>2760</v>
       </c>
     </row>
@@ -12574,25 +12579,26 @@
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="12">
         <v>60000</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="12">
         <v>12000</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="12">
         <v>15000</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="12">
         <v>3000</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="12">
         <v>75000</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="12">
         <v>15000</v>
       </c>
     </row>
@@ -12600,28 +12606,28 @@
       <c r="A8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="12">
         <v>7200</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="12">
         <v>1440</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="12">
         <v>64800</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="12">
         <v>12960</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="12">
         <v>16800</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="12">
         <v>3360</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="12">
         <v>88800</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="12">
         <v>17760</v>
       </c>
     </row>
@@ -12637,7 +12643,7 @@
       <c r="A29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="12">
         <v>13800</v>
       </c>
     </row>
@@ -12645,7 +12651,7 @@
       <c r="A30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="12">
         <v>75000</v>
       </c>
     </row>
@@ -12653,7 +12659,7 @@
       <c r="A31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="12">
         <v>88800</v>
       </c>
     </row>
@@ -12672,10 +12678,10 @@
       <c r="A49" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="12">
         <v>66600</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="12">
         <v>13320</v>
       </c>
     </row>
@@ -12683,10 +12689,10 @@
       <c r="A50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="12">
         <v>15000</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="12">
         <v>3000</v>
       </c>
     </row>
@@ -12694,10 +12700,10 @@
       <c r="A51" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="12">
         <v>7200</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="12">
         <v>1440</v>
       </c>
     </row>
@@ -12705,10 +12711,10 @@
       <c r="A52" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="12">
         <v>88800</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="12">
         <v>17760</v>
       </c>
     </row>
@@ -12767,10 +12773,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1AB857-B6E6-4422-94BD-7394F300F344}">
-  <dimension ref="B1:O8"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12782,45 +12788,419 @@
     <col min="15" max="15" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
-    <row r="4" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+    </row>
+    <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="10"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10"/>
+    <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="11"/>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
     </row>
-    <row r="8" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="15"/>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>

--- a/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
+++ b/Analisis de venta y rendimiento comercial/analisis_ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Excel_Projects\Analisis de venta y rendimiento comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8509799C-2FF8-4513-9B3D-93410B3B4411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E89D6BE-3FAA-4265-A761-11C194D06117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{C3689989-C428-4383-B478-D0EDFC37C904}"/>
   </bookViews>
@@ -361,7 +361,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -388,6 +387,7 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,7 +1178,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-F8CE-49B5-8EE4-9AE62E748FFA}"/>
+              <c16:uniqueId val="{00000012-18CB-402C-9BB9-14266FB5D840}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1237,7 +1237,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-F8CE-49B5-8EE4-9AE62E748FFA}"/>
+              <c16:uniqueId val="{00000013-18CB-402C-9BB9-14266FB5D840}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1296,7 +1296,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CE50-414F-8E18-4D67AF348B30}"/>
+              <c16:uniqueId val="{00000014-18CB-402C-9BB9-14266FB5D840}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1355,7 +1355,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CE50-414F-8E18-4D67AF348B30}"/>
+              <c16:uniqueId val="{00000015-18CB-402C-9BB9-14266FB5D840}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9231,8 +9231,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Categoria 1">
@@ -9255,7 +9255,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9309,8 +9309,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Vendedor 1">
@@ -9333,7 +9333,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9387,8 +9387,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Canal 2">
@@ -9411,7 +9411,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9465,8 +9465,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Ciudad_Cliente 1">
@@ -9489,7 +9489,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9790,6 +9790,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>$ 14,800</a:t>
           </a:fld>
           <a:endParaRPr lang="es-CO" sz="2000">
@@ -9890,6 +9891,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>5742</a:t>
           </a:fld>
           <a:endParaRPr lang="es-CO" sz="4000">
@@ -9990,6 +9992,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>112.4%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -12550,28 +12553,28 @@
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="22">
         <v>7200</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="22">
         <v>1440</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="22">
         <v>4800</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="22">
         <v>960</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="22">
         <v>1800</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="22">
         <v>360</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="22">
         <v>13800</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="22">
         <v>2760</v>
       </c>
     </row>
@@ -12579,26 +12582,26 @@
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22">
         <v>0</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="22">
         <v>60000</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="22">
         <v>12000</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="22">
         <v>15000</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="22">
         <v>3000</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="22">
         <v>75000</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="22">
         <v>15000</v>
       </c>
     </row>
@@ -12606,28 +12609,28 @@
       <c r="A8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="22">
         <v>7200</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="22">
         <v>1440</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="22">
         <v>64800</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="22">
         <v>12960</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="22">
         <v>16800</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="22">
         <v>3360</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="22">
         <v>88800</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="22">
         <v>17760</v>
       </c>
     </row>
@@ -12643,7 +12646,7 @@
       <c r="A29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="22">
         <v>13800</v>
       </c>
     </row>
@@ -12651,7 +12654,7 @@
       <c r="A30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="22">
         <v>75000</v>
       </c>
     </row>
@@ -12659,7 +12662,7 @@
       <c r="A31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="22">
         <v>88800</v>
       </c>
     </row>
@@ -12678,10 +12681,10 @@
       <c r="A49" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="22">
         <v>66600</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="22">
         <v>13320</v>
       </c>
     </row>
@@ -12689,10 +12692,10 @@
       <c r="A50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="22">
         <v>15000</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="22">
         <v>3000</v>
       </c>
     </row>
@@ -12700,10 +12703,10 @@
       <c r="A51" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="22">
         <v>7200</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="22">
         <v>1440</v>
       </c>
     </row>
@@ -12711,10 +12714,10 @@
       <c r="A52" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="22">
         <v>88800</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="22">
         <v>17760</v>
       </c>
     </row>
@@ -12789,415 +12792,415 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="16"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="15"/>
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="16"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="15"/>
       <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="16"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="15"/>
       <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0" pivotTables="0"/>
